--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\meeting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="15015" windowHeight="4080" activeTab="1"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bug列表!$B$1:$G$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bug列表!$B$1:$H$73</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="393">
   <si>
     <t>系统</t>
   </si>
@@ -1472,10 +1477,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>客户所属区域改为：根据接待所属区域走，进入页面就指定了，不需要修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>售价改为单价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1505,10 +1506,6 @@
   </si>
   <si>
     <t>回购记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称需要修改（待确定）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1602,43 +1599,67 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>购买金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品列中：增加单价、金额合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件：售卖金额改为定金日期范围查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原来的成交金额和成交日期改为回购金额、回购日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>商品信息中显示原有单价</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>购买金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择赠品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买商品列中：增加单价、金额合计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件：售卖金额改为定金日期范围查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将原来的成交金额和成交日期改为回购金额、回购日期</t>
+    <t>回购模块重新
+显示order—detail为主。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户所属区域改为：根据接待所属区域走，进入页面就指定了，不需要修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称需要修改（待确定）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>定单管理改为退换货管理</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2363,10 +2384,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3696,7 +3717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -3707,7 +3728,7 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="5" customWidth="1"/>
     <col min="2" max="2" width="10.296875" style="5" customWidth="1"/>
@@ -3723,7 +3744,7 @@
     <col min="256" max="16384" width="7.59765625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="11.25" customHeight="1">
+    <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="37" t="s">
         <v>0</v>
@@ -3740,7 +3761,7 @@
       <c r="F1" s="4"/>
       <c r="J1" s="46"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="38" t="s">
         <v>201</v>
@@ -3770,7 +3791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="59.25" customHeight="1">
+    <row r="3" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="19" t="s">
         <v>65</v>
@@ -3794,7 +3815,7 @@
       <c r="I3" s="46"/>
       <c r="J3" s="52"/>
     </row>
-    <row r="4" spans="1:10" ht="36.75" customHeight="1">
+    <row r="4" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -3814,7 +3835,7 @@
       <c r="I4" s="46"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:10" ht="36.75" customHeight="1">
+    <row r="5" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -3834,7 +3855,7 @@
       <c r="I5" s="46"/>
       <c r="J5" s="52"/>
     </row>
-    <row r="6" spans="1:10" ht="38.25" customHeight="1">
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="10"/>
       <c r="C6" s="8" t="s">
@@ -3856,7 +3877,7 @@
       <c r="I6" s="46"/>
       <c r="J6" s="52"/>
     </row>
-    <row r="7" spans="1:10" ht="37.5" customHeight="1">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3876,7 +3897,7 @@
       <c r="I7" s="46"/>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:10" ht="42.75" customHeight="1">
+    <row r="8" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -3896,7 +3917,7 @@
       <c r="I8" s="46"/>
       <c r="J8" s="52"/>
     </row>
-    <row r="9" spans="1:10" ht="54.75" customHeight="1">
+    <row r="9" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
@@ -3918,7 +3939,7 @@
       <c r="I9" s="46"/>
       <c r="J9" s="52"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+    <row r="10" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3938,7 +3959,7 @@
       <c r="I10" s="46"/>
       <c r="J10" s="52"/>
     </row>
-    <row r="11" spans="1:10" ht="38.25" customHeight="1">
+    <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -3958,7 +3979,7 @@
       <c r="I11" s="46"/>
       <c r="J11" s="52"/>
     </row>
-    <row r="12" spans="1:10" ht="90.75" customHeight="1">
+    <row r="12" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10" t="s">
@@ -3980,7 +4001,7 @@
       <c r="I12" s="46"/>
       <c r="J12" s="52"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+    <row r="13" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4000,7 +4021,7 @@
       <c r="I13" s="46"/>
       <c r="J13" s="52"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+    <row r="14" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4020,7 +4041,7 @@
       <c r="I14" s="46"/>
       <c r="J14" s="52"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+    <row r="15" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="22" t="s">
@@ -4040,7 +4061,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="52"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+    <row r="16" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
@@ -4058,7 +4079,7 @@
       <c r="I16" s="46"/>
       <c r="J16" s="52"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+    <row r="17" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="10"/>
       <c r="C17" s="18"/>
@@ -4076,7 +4097,7 @@
       <c r="I17" s="46"/>
       <c r="J17" s="52"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+    <row r="18" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8" t="s">
         <v>178</v>
@@ -4104,7 +4125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="39" customHeight="1">
+    <row r="19" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16"/>
@@ -4128,7 +4149,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+    <row r="20" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="10"/>
       <c r="C20" s="16"/>
@@ -4152,7 +4173,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18.95" customHeight="1">
+    <row r="21" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16"/>
@@ -4172,7 +4193,7 @@
       <c r="I21" s="46"/>
       <c r="J21" s="52"/>
     </row>
-    <row r="22" spans="1:10" ht="83.25" customHeight="1">
+    <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="10"/>
       <c r="C22" s="16"/>
@@ -4196,7 +4217,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45.75" customHeight="1">
+    <row r="23" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16"/>
@@ -4220,7 +4241,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" customHeight="1">
+    <row r="24" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="10"/>
       <c r="C24" s="16"/>
@@ -4244,7 +4265,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1">
+    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16"/>
@@ -4264,7 +4285,7 @@
       <c r="I25" s="46"/>
       <c r="J25" s="52"/>
     </row>
-    <row r="26" spans="1:10" ht="34.5" customHeight="1">
+    <row r="26" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="10"/>
       <c r="C26" s="16"/>
@@ -4288,7 +4309,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="22.5" customHeight="1">
+    <row r="27" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="10"/>
       <c r="C27" s="22" t="s">
@@ -4308,7 +4329,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="52"/>
     </row>
-    <row r="28" spans="1:10" ht="22.5" customHeight="1">
+    <row r="28" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="10"/>
       <c r="C28" s="16"/>
@@ -4326,7 +4347,7 @@
       <c r="I28" s="46"/>
       <c r="J28" s="52"/>
     </row>
-    <row r="29" spans="1:10" ht="37.5" customHeight="1">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16"/>
@@ -4344,7 +4365,7 @@
       <c r="I29" s="46"/>
       <c r="J29" s="52"/>
     </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="10"/>
       <c r="C30" s="18"/>
@@ -4362,7 +4383,7 @@
       <c r="I30" s="46"/>
       <c r="J30" s="52"/>
     </row>
-    <row r="31" spans="1:10" ht="18.95" customHeight="1">
+    <row r="31" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="10"/>
       <c r="C31" s="19" t="s">
@@ -4386,7 +4407,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="22.5" customHeight="1">
+    <row r="32" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4408,7 +4429,7 @@
       </c>
       <c r="J32" s="52"/>
     </row>
-    <row r="33" spans="1:10" ht="18.95" customHeight="1">
+    <row r="33" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="10"/>
       <c r="C33" s="22" t="s">
@@ -4434,7 +4455,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="70.5" customHeight="1">
+    <row r="34" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="10"/>
       <c r="C34" s="16"/>
@@ -4458,7 +4479,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="24.75" customHeight="1">
+    <row r="35" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16"/>
@@ -4480,7 +4501,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="73.5" customHeight="1">
+    <row r="36" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="10"/>
       <c r="C36" s="18"/>
@@ -4498,7 +4519,7 @@
       <c r="I36" s="46"/>
       <c r="J36" s="52"/>
     </row>
-    <row r="37" spans="1:10" ht="37.5" customHeight="1">
+    <row r="37" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="10"/>
       <c r="C37" s="13" t="s">
@@ -4524,7 +4545,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="18.95" customHeight="1">
+    <row r="38" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="10"/>
       <c r="C38" s="16"/>
@@ -4546,7 +4567,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="18.95" customHeight="1">
+    <row r="39" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="10"/>
       <c r="C39" s="16"/>
@@ -4568,7 +4589,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="18.95" customHeight="1">
+    <row r="40" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="10"/>
       <c r="C40" s="16"/>
@@ -4590,7 +4611,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="18.95" customHeight="1">
+    <row r="41" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="10"/>
       <c r="C41" s="16"/>
@@ -4608,7 +4629,7 @@
       <c r="I41" s="46"/>
       <c r="J41" s="52"/>
     </row>
-    <row r="42" spans="1:10" ht="18.95" customHeight="1">
+    <row r="42" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="10"/>
       <c r="C42" s="22" t="s">
@@ -4630,7 +4651,7 @@
       <c r="I42" s="46"/>
       <c r="J42" s="52"/>
     </row>
-    <row r="43" spans="1:10" ht="18.95" customHeight="1">
+    <row r="43" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="10"/>
       <c r="C43" s="16"/>
@@ -4652,7 +4673,7 @@
       <c r="I43" s="46"/>
       <c r="J43" s="64"/>
     </row>
-    <row r="44" spans="1:10" ht="18.95" customHeight="1">
+    <row r="44" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="24"/>
       <c r="C44" s="22" t="s">
@@ -4674,7 +4695,7 @@
       <c r="I44" s="46"/>
       <c r="J44" s="52"/>
     </row>
-    <row r="45" spans="1:10" ht="21.75" customHeight="1">
+    <row r="45" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="24"/>
       <c r="C45" s="23"/>
@@ -4694,7 +4715,7 @@
       <c r="I45" s="46"/>
       <c r="J45" s="52"/>
     </row>
-    <row r="46" spans="1:10" ht="21.75" customHeight="1">
+    <row r="46" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="24"/>
       <c r="C46" s="16"/>
@@ -4714,7 +4735,7 @@
       <c r="I46" s="46"/>
       <c r="J46" s="52"/>
     </row>
-    <row r="47" spans="1:10" ht="21.75" customHeight="1">
+    <row r="47" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="24"/>
       <c r="C47" s="16"/>
@@ -4732,7 +4753,7 @@
       <c r="I47" s="46"/>
       <c r="J47" s="52"/>
     </row>
-    <row r="48" spans="1:10" ht="42" customHeight="1">
+    <row r="48" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="24"/>
       <c r="C48" s="18"/>
@@ -4750,7 +4771,7 @@
       <c r="I48" s="46"/>
       <c r="J48" s="52"/>
     </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1">
+    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="25" t="s">
         <v>179</v>
@@ -4772,7 +4793,7 @@
       <c r="I49" s="46"/>
       <c r="J49" s="52"/>
     </row>
-    <row r="50" spans="1:10" ht="18.75" customHeight="1">
+    <row r="50" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="10"/>
       <c r="C50" s="18"/>
@@ -4790,7 +4811,7 @@
       <c r="I50" s="46"/>
       <c r="J50" s="52"/>
     </row>
-    <row r="51" spans="1:10" ht="54.75" customHeight="1">
+    <row r="51" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="10"/>
       <c r="C51" s="22" t="s">
@@ -4812,7 +4833,7 @@
       <c r="I51" s="46"/>
       <c r="J51" s="52"/>
     </row>
-    <row r="52" spans="1:10" ht="18.75" customHeight="1">
+    <row r="52" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="10"/>
       <c r="C52" s="18"/>
@@ -4832,7 +4853,7 @@
       <c r="I52" s="46"/>
       <c r="J52" s="52"/>
     </row>
-    <row r="53" spans="1:10" ht="40.5" customHeight="1">
+    <row r="53" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="10"/>
       <c r="C53" s="19" t="s">
@@ -4858,7 +4879,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18.95" customHeight="1">
+    <row r="54" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4882,7 +4903,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18.95" customHeight="1">
+    <row r="55" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -4904,7 +4925,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18.95" customHeight="1">
+    <row r="56" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="24"/>
       <c r="C56" s="13" t="s">
@@ -4924,7 +4945,7 @@
       <c r="I56" s="46"/>
       <c r="J56" s="52"/>
     </row>
-    <row r="57" spans="1:10" ht="18.95" customHeight="1">
+    <row r="57" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="24"/>
       <c r="C57" s="16"/>
@@ -4942,7 +4963,7 @@
       <c r="I57" s="46"/>
       <c r="J57" s="52"/>
     </row>
-    <row r="58" spans="1:10" ht="18.95" customHeight="1">
+    <row r="58" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="24"/>
       <c r="C58" s="16"/>
@@ -4960,7 +4981,7 @@
       <c r="I58" s="46"/>
       <c r="J58" s="52"/>
     </row>
-    <row r="59" spans="1:10" ht="18.95" customHeight="1">
+    <row r="59" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="24"/>
       <c r="C59" s="16"/>
@@ -4978,7 +4999,7 @@
       <c r="I59" s="46"/>
       <c r="J59" s="52"/>
     </row>
-    <row r="60" spans="1:10" ht="18.95" customHeight="1">
+    <row r="60" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="24"/>
       <c r="C60" s="16"/>
@@ -4996,7 +5017,7 @@
       <c r="I60" s="46"/>
       <c r="J60" s="52"/>
     </row>
-    <row r="61" spans="1:10" ht="18.95" customHeight="1">
+    <row r="61" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="24"/>
       <c r="C61" s="16"/>
@@ -5014,7 +5035,7 @@
       <c r="I61" s="46"/>
       <c r="J61" s="52"/>
     </row>
-    <row r="62" spans="1:10" ht="18.95" customHeight="1">
+    <row r="62" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="24"/>
       <c r="C62" s="16"/>
@@ -5032,7 +5053,7 @@
       <c r="I62" s="46"/>
       <c r="J62" s="52"/>
     </row>
-    <row r="63" spans="1:10" ht="37.5" customHeight="1">
+    <row r="63" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="24"/>
       <c r="C63" s="18"/>
@@ -5050,7 +5071,7 @@
       <c r="I63" s="46"/>
       <c r="J63" s="52"/>
     </row>
-    <row r="64" spans="1:10" ht="37.5" customHeight="1">
+    <row r="64" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="10"/>
       <c r="C64" s="8" t="s">
@@ -5070,7 +5091,7 @@
       <c r="I64" s="46"/>
       <c r="J64" s="52"/>
     </row>
-    <row r="65" spans="1:10" ht="21.75" customHeight="1">
+    <row r="65" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="10"/>
       <c r="C65" s="19"/>
@@ -5088,7 +5109,7 @@
       <c r="I65" s="46"/>
       <c r="J65" s="52"/>
     </row>
-    <row r="66" spans="1:10" ht="18.95" customHeight="1">
+    <row r="66" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="10"/>
       <c r="C66" s="19"/>
@@ -5106,7 +5127,7 @@
       <c r="I66" s="46"/>
       <c r="J66" s="52"/>
     </row>
-    <row r="67" spans="1:10" ht="18.95" customHeight="1">
+    <row r="67" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="10"/>
       <c r="C67" s="19"/>
@@ -5124,7 +5145,7 @@
       <c r="I67" s="46"/>
       <c r="J67" s="52"/>
     </row>
-    <row r="68" spans="1:10" ht="18.95" customHeight="1">
+    <row r="68" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="10"/>
       <c r="C68" s="19"/>
@@ -5142,7 +5163,7 @@
       <c r="I68" s="46"/>
       <c r="J68" s="52"/>
     </row>
-    <row r="69" spans="1:10" ht="18.95" customHeight="1">
+    <row r="69" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="10"/>
       <c r="C69" s="19"/>
@@ -5160,7 +5181,7 @@
       <c r="I69" s="46"/>
       <c r="J69" s="52"/>
     </row>
-    <row r="70" spans="1:10" ht="18.95" customHeight="1">
+    <row r="70" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="10"/>
       <c r="C70" s="19"/>
@@ -5178,7 +5199,7 @@
       <c r="I70" s="46"/>
       <c r="J70" s="52"/>
     </row>
-    <row r="71" spans="1:10" ht="18.95" customHeight="1">
+    <row r="71" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="10"/>
       <c r="C71" s="8" t="s">
@@ -5198,7 +5219,7 @@
       <c r="I71" s="46"/>
       <c r="J71" s="52"/>
     </row>
-    <row r="72" spans="1:10" ht="18.95" customHeight="1">
+    <row r="72" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -5216,7 +5237,7 @@
       <c r="I72" s="46"/>
       <c r="J72" s="52"/>
     </row>
-    <row r="73" spans="1:10" ht="18.95" customHeight="1">
+    <row r="73" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -5234,7 +5255,7 @@
       <c r="I73" s="46"/>
       <c r="J73" s="52"/>
     </row>
-    <row r="74" spans="1:10" ht="20.25" customHeight="1">
+    <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -5252,7 +5273,7 @@
       <c r="I74" s="46"/>
       <c r="J74" s="52"/>
     </row>
-    <row r="75" spans="1:10" ht="18.95" customHeight="1">
+    <row r="75" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
@@ -5270,7 +5291,7 @@
       <c r="I75" s="46"/>
       <c r="J75" s="52"/>
     </row>
-    <row r="76" spans="1:10" ht="18.75" customHeight="1">
+    <row r="76" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -5288,7 +5309,7 @@
       <c r="I76" s="46"/>
       <c r="J76" s="52"/>
     </row>
-    <row r="77" spans="1:10" ht="18.95" customHeight="1">
+    <row r="77" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -5306,7 +5327,7 @@
       <c r="I77" s="46"/>
       <c r="J77" s="52"/>
     </row>
-    <row r="78" spans="1:10" ht="36" customHeight="1">
+    <row r="78" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
         <v>177</v>
@@ -5330,7 +5351,7 @@
       <c r="I78" s="46"/>
       <c r="J78" s="52"/>
     </row>
-    <row r="79" spans="1:10" ht="18.95" customHeight="1">
+    <row r="79" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="16"/>
       <c r="C79" s="28"/>
@@ -5350,7 +5371,7 @@
       <c r="I79" s="46"/>
       <c r="J79" s="52"/>
     </row>
-    <row r="80" spans="1:10" ht="18.95" customHeight="1">
+    <row r="80" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="16"/>
       <c r="C80" s="28"/>
@@ -5370,7 +5391,7 @@
       <c r="I80" s="46"/>
       <c r="J80" s="52"/>
     </row>
-    <row r="81" spans="1:10" ht="18.95" customHeight="1">
+    <row r="81" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="16"/>
       <c r="C81" s="28"/>
@@ -5390,7 +5411,7 @@
       <c r="I81" s="46"/>
       <c r="J81" s="52"/>
     </row>
-    <row r="82" spans="1:10" ht="36" customHeight="1">
+    <row r="82" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="16"/>
       <c r="C82" s="28"/>
@@ -5410,7 +5431,7 @@
       <c r="I82" s="46"/>
       <c r="J82" s="52"/>
     </row>
-    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1">
+    <row r="83" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="16"/>
       <c r="C83" s="28"/>
@@ -5430,7 +5451,7 @@
       <c r="I83" s="46"/>
       <c r="J83" s="52"/>
     </row>
-    <row r="84" spans="1:10" ht="18.95" customHeight="1">
+    <row r="84" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="48"/>
       <c r="C84" s="55" t="s">
@@ -5452,7 +5473,7 @@
       <c r="I84" s="58"/>
       <c r="J84" s="52"/>
     </row>
-    <row r="85" spans="1:10" ht="41.25" customHeight="1">
+    <row r="85" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="48"/>
       <c r="C85" s="61" t="s">
@@ -5474,7 +5495,7 @@
       </c>
       <c r="J85" s="54"/>
     </row>
-    <row r="86" spans="1:10" ht="36.75" customHeight="1">
+    <row r="86" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="16"/>
       <c r="C86" s="28" t="s">
@@ -5494,7 +5515,7 @@
       <c r="I86" s="60"/>
       <c r="J86" s="52"/>
     </row>
-    <row r="87" spans="1:10" ht="26.25" customHeight="1">
+    <row r="87" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="16"/>
       <c r="C87" s="28"/>
@@ -5512,7 +5533,7 @@
       <c r="I87" s="46"/>
       <c r="J87" s="52"/>
     </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1">
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="16"/>
       <c r="C88" s="28"/>
@@ -5530,7 +5551,7 @@
       <c r="I88" s="46"/>
       <c r="J88" s="52"/>
     </row>
-    <row r="89" spans="1:10" ht="128.25" customHeight="1">
+    <row r="89" spans="1:10" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="16"/>
       <c r="C89" s="28"/>
@@ -5548,7 +5569,7 @@
       <c r="I89" s="46"/>
       <c r="J89" s="52"/>
     </row>
-    <row r="90" spans="1:10" ht="24" customHeight="1">
+    <row r="90" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="16"/>
       <c r="C90" s="28"/>
@@ -5566,7 +5587,7 @@
       <c r="I90" s="46"/>
       <c r="J90" s="52"/>
     </row>
-    <row r="91" spans="1:10" ht="56.25" customHeight="1">
+    <row r="91" spans="1:10" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="16"/>
       <c r="C91" s="28"/>
@@ -5584,7 +5605,7 @@
       <c r="I91" s="46"/>
       <c r="J91" s="52"/>
     </row>
-    <row r="92" spans="1:10" ht="19.5" customHeight="1">
+    <row r="92" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="16"/>
       <c r="C92" s="27" t="s">
@@ -5604,7 +5625,7 @@
       <c r="I92" s="46"/>
       <c r="J92" s="52"/>
     </row>
-    <row r="93" spans="1:10" ht="19.5" customHeight="1">
+    <row r="93" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="16"/>
       <c r="C93" s="29"/>
@@ -5622,7 +5643,7 @@
       <c r="I93" s="46"/>
       <c r="J93" s="52"/>
     </row>
-    <row r="94" spans="1:10" ht="18.95" customHeight="1">
+    <row r="94" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="16"/>
       <c r="C94" s="27" t="s">
@@ -5642,7 +5663,7 @@
       <c r="I94" s="46"/>
       <c r="J94" s="52"/>
     </row>
-    <row r="95" spans="1:10" ht="41.25" customHeight="1">
+    <row r="95" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="16"/>
       <c r="C95" s="28"/>
@@ -5660,7 +5681,7 @@
       <c r="I95" s="46"/>
       <c r="J95" s="52"/>
     </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1">
+    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="16"/>
       <c r="C96" s="27" t="s">
@@ -5680,7 +5701,7 @@
       <c r="I96" s="46"/>
       <c r="J96" s="52"/>
     </row>
-    <row r="97" spans="1:10" ht="37.5" customHeight="1">
+    <row r="97" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="16"/>
       <c r="C97" s="28" t="s">
@@ -5700,7 +5721,7 @@
       <c r="I97" s="46"/>
       <c r="J97" s="52"/>
     </row>
-    <row r="98" spans="1:10" ht="38.25" customHeight="1">
+    <row r="98" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="16"/>
       <c r="C98" s="28"/>
@@ -5718,7 +5739,7 @@
       <c r="I98" s="46"/>
       <c r="J98" s="52"/>
     </row>
-    <row r="99" spans="1:10" ht="69.75" customHeight="1">
+    <row r="99" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="16"/>
       <c r="C99" s="28"/>
@@ -5736,7 +5757,7 @@
       <c r="I99" s="46"/>
       <c r="J99" s="52"/>
     </row>
-    <row r="100" spans="1:10" ht="19.5" customHeight="1">
+    <row r="100" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="16"/>
       <c r="C100" s="29"/>
@@ -5754,7 +5775,7 @@
       <c r="I100" s="46"/>
       <c r="J100" s="52"/>
     </row>
-    <row r="101" spans="1:10" ht="19.5" customHeight="1">
+    <row r="101" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="16"/>
       <c r="C101" s="27" t="s">
@@ -5774,7 +5795,7 @@
       <c r="I101" s="46"/>
       <c r="J101" s="52"/>
     </row>
-    <row r="102" spans="1:10" ht="19.5" customHeight="1">
+    <row r="102" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="16"/>
       <c r="C102" s="28"/>
@@ -5792,7 +5813,7 @@
       <c r="I102" s="46"/>
       <c r="J102" s="52"/>
     </row>
-    <row r="103" spans="1:10" ht="19.5" customHeight="1">
+    <row r="103" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="16"/>
       <c r="C103" s="29"/>
@@ -5810,7 +5831,7 @@
       <c r="I103" s="46"/>
       <c r="J103" s="52"/>
     </row>
-    <row r="104" spans="1:10" ht="19.5" customHeight="1">
+    <row r="104" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="16"/>
       <c r="C104" s="27" t="s">
@@ -5830,7 +5851,7 @@
       <c r="I104" s="46"/>
       <c r="J104" s="52"/>
     </row>
-    <row r="105" spans="1:10" ht="19.5" customHeight="1">
+    <row r="105" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="16"/>
       <c r="C105" s="29"/>
@@ -5848,7 +5869,7 @@
       <c r="I105" s="46"/>
       <c r="J105" s="52"/>
     </row>
-    <row r="106" spans="1:10" ht="34.5" customHeight="1">
+    <row r="106" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="13" t="s">
         <v>66</v>
@@ -5870,7 +5891,7 @@
       <c r="I106" s="46"/>
       <c r="J106" s="52"/>
     </row>
-    <row r="107" spans="1:10" ht="18.95" customHeight="1">
+    <row r="107" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="16"/>
       <c r="C107" s="34"/>
@@ -5888,7 +5909,7 @@
       <c r="I107" s="46"/>
       <c r="J107" s="52"/>
     </row>
-    <row r="108" spans="1:10" ht="18.95" customHeight="1">
+    <row r="108" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="16"/>
       <c r="C108" s="29"/>
@@ -5906,7 +5927,7 @@
       <c r="I108" s="46"/>
       <c r="J108" s="52"/>
     </row>
-    <row r="109" spans="1:10" ht="18.95" customHeight="1">
+    <row r="109" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="16"/>
       <c r="C109" s="35" t="s">
@@ -5926,7 +5947,7 @@
       <c r="I109" s="46"/>
       <c r="J109" s="52"/>
     </row>
-    <row r="110" spans="1:10" ht="18.95" customHeight="1">
+    <row r="110" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="16"/>
       <c r="C110" s="14" t="s">
@@ -5946,7 +5967,7 @@
       <c r="I110" s="46"/>
       <c r="J110" s="52"/>
     </row>
-    <row r="111" spans="1:10" ht="18.95" customHeight="1">
+    <row r="111" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="31"/>
       <c r="C111" s="14" t="s">
@@ -5966,7 +5987,7 @@
       <c r="I111" s="46"/>
       <c r="J111" s="52"/>
     </row>
-    <row r="112" spans="1:10" ht="21.95" customHeight="1">
+    <row r="112" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="19" t="s">
         <v>67</v>
@@ -5992,7 +6013,7 @@
       <c r="I112" s="46"/>
       <c r="J112" s="52"/>
     </row>
-    <row r="113" spans="1:10" ht="21.95" customHeight="1">
+    <row r="113" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="10"/>
       <c r="C113" s="84"/>
@@ -6014,7 +6035,7 @@
       <c r="I113" s="46"/>
       <c r="J113" s="52"/>
     </row>
-    <row r="114" spans="1:10" ht="21.95" customHeight="1">
+    <row r="114" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="10"/>
       <c r="C114" s="84"/>
@@ -6036,7 +6057,7 @@
       <c r="I114" s="46"/>
       <c r="J114" s="52"/>
     </row>
-    <row r="115" spans="1:10" ht="21.95" customHeight="1">
+    <row r="115" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="10"/>
       <c r="D115" s="21" t="s">
@@ -6057,7 +6078,7 @@
       <c r="I115" s="46"/>
       <c r="J115" s="52"/>
     </row>
-    <row r="116" spans="1:10" ht="21.95" customHeight="1">
+    <row r="116" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="10"/>
       <c r="D116" s="21" t="s">
@@ -6078,7 +6099,7 @@
       <c r="I116" s="46"/>
       <c r="J116" s="52"/>
     </row>
-    <row r="117" spans="1:10" ht="21.95" customHeight="1">
+    <row r="117" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="10"/>
       <c r="D117" s="9" t="s">
@@ -6099,7 +6120,7 @@
       <c r="I117" s="46"/>
       <c r="J117" s="52"/>
     </row>
-    <row r="118" spans="1:10" ht="21.95" customHeight="1">
+    <row r="118" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="10"/>
       <c r="D118" s="9" t="s">
@@ -6120,7 +6141,7 @@
       <c r="I118" s="46"/>
       <c r="J118" s="52"/>
     </row>
-    <row r="119" spans="1:10" ht="21.95" customHeight="1">
+    <row r="119" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="10"/>
       <c r="D119" s="8" t="s">
@@ -6141,7 +6162,7 @@
       <c r="I119" s="46"/>
       <c r="J119" s="52"/>
     </row>
-    <row r="120" spans="1:10" ht="24" customHeight="1">
+    <row r="120" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="13" t="s">
         <v>29</v>
@@ -6167,7 +6188,7 @@
       <c r="I120" s="46"/>
       <c r="J120" s="52"/>
     </row>
-    <row r="121" spans="1:10" ht="25.5" customHeight="1">
+    <row r="121" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="30"/>
       <c r="C121" s="86"/>
@@ -6189,7 +6210,7 @@
       <c r="I121" s="46"/>
       <c r="J121" s="52"/>
     </row>
-    <row r="122" spans="1:10" ht="18" customHeight="1">
+    <row r="122" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="30"/>
       <c r="C122" s="86"/>
@@ -6211,7 +6232,7 @@
       <c r="I122" s="46"/>
       <c r="J122" s="52"/>
     </row>
-    <row r="123" spans="1:10" ht="18" customHeight="1">
+    <row r="123" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="30"/>
       <c r="C123" s="86"/>
@@ -6233,7 +6254,7 @@
       <c r="I123" s="46"/>
       <c r="J123" s="52"/>
     </row>
-    <row r="124" spans="1:10" ht="18" customHeight="1">
+    <row r="124" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="30"/>
       <c r="C124" s="86"/>
@@ -6255,7 +6276,7 @@
       <c r="I124" s="46"/>
       <c r="J124" s="52"/>
     </row>
-    <row r="125" spans="1:10" ht="18" customHeight="1">
+    <row r="125" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="30"/>
       <c r="C125" s="86"/>
@@ -6277,7 +6298,7 @@
       <c r="I125" s="46"/>
       <c r="J125" s="52"/>
     </row>
-    <row r="126" spans="1:10" ht="18" customHeight="1">
+    <row r="126" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="30"/>
       <c r="C126" s="86"/>
@@ -6299,7 +6320,7 @@
       <c r="I126" s="46"/>
       <c r="J126" s="52"/>
     </row>
-    <row r="127" spans="1:10" ht="18" customHeight="1">
+    <row r="127" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="30"/>
       <c r="C127" s="86"/>
@@ -6321,7 +6342,7 @@
       <c r="I127" s="46"/>
       <c r="J127" s="52"/>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1">
+    <row r="128" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="30"/>
       <c r="C128" s="86"/>
@@ -6343,7 +6364,7 @@
       <c r="I128" s="46"/>
       <c r="J128" s="52"/>
     </row>
-    <row r="129" spans="1:10" ht="18" customHeight="1">
+    <row r="129" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="30"/>
       <c r="C129" s="86"/>
@@ -6365,7 +6386,7 @@
       <c r="I129" s="46"/>
       <c r="J129" s="52"/>
     </row>
-    <row r="130" spans="1:10" ht="18" customHeight="1">
+    <row r="130" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="30"/>
       <c r="C130" s="44"/>
@@ -6387,7 +6408,7 @@
       <c r="I130" s="46"/>
       <c r="J130" s="52"/>
     </row>
-    <row r="131" spans="1:10" ht="18.95" customHeight="1">
+    <row r="131" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="30"/>
       <c r="C131" s="28"/>
@@ -6409,7 +6430,7 @@
       <c r="I131" s="46"/>
       <c r="J131" s="52"/>
     </row>
-    <row r="132" spans="1:10" ht="18.95" customHeight="1">
+    <row r="132" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="30"/>
       <c r="C132" s="27" t="s">
@@ -6429,7 +6450,7 @@
       <c r="I132" s="46"/>
       <c r="J132" s="52"/>
     </row>
-    <row r="133" spans="1:10" ht="18.95" customHeight="1">
+    <row r="133" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="31"/>
       <c r="C133" s="29"/>
@@ -6447,7 +6468,7 @@
       <c r="I133" s="46"/>
       <c r="J133" s="52"/>
     </row>
-    <row r="134" spans="1:10" ht="18.95" customHeight="1">
+    <row r="134" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="19" t="s">
         <v>68</v>
@@ -6469,7 +6490,7 @@
       <c r="I134" s="46"/>
       <c r="J134" s="52"/>
     </row>
-    <row r="135" spans="1:10" ht="18.95" customHeight="1">
+    <row r="135" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -6487,7 +6508,7 @@
       <c r="I135" s="46"/>
       <c r="J135" s="52"/>
     </row>
-    <row r="136" spans="1:10" ht="71.25" customHeight="1">
+    <row r="136" spans="1:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="10"/>
       <c r="C136" s="10"/>
@@ -6505,7 +6526,7 @@
       <c r="I136" s="46"/>
       <c r="J136" s="52"/>
     </row>
-    <row r="137" spans="1:10" ht="18.95" customHeight="1">
+    <row r="137" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="10"/>
       <c r="C137" s="10"/>
@@ -6523,7 +6544,7 @@
       <c r="I137" s="46"/>
       <c r="J137" s="52"/>
     </row>
-    <row r="138" spans="1:10" ht="18.95" customHeight="1">
+    <row r="138" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
@@ -6541,7 +6562,7 @@
       <c r="I138" s="46"/>
       <c r="J138" s="52"/>
     </row>
-    <row r="139" spans="1:10" ht="18.95" customHeight="1">
+    <row r="139" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="10"/>
       <c r="C139" s="8" t="s">
@@ -6561,7 +6582,7 @@
       <c r="I139" s="46"/>
       <c r="J139" s="52"/>
     </row>
-    <row r="140" spans="1:10" ht="18.95" customHeight="1">
+    <row r="140" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="10"/>
       <c r="C140" s="10"/>
@@ -6579,7 +6600,7 @@
       <c r="I140" s="46"/>
       <c r="J140" s="52"/>
     </row>
-    <row r="141" spans="1:10" ht="18.95" customHeight="1">
+    <row r="141" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
@@ -6597,7 +6618,7 @@
       <c r="I141" s="46"/>
       <c r="J141" s="52"/>
     </row>
-    <row r="142" spans="1:10" ht="18.95" customHeight="1">
+    <row r="142" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="10"/>
       <c r="C142" s="8" t="s">
@@ -6617,7 +6638,7 @@
       <c r="I142" s="46"/>
       <c r="J142" s="52"/>
     </row>
-    <row r="143" spans="1:10" ht="18.95" customHeight="1">
+    <row r="143" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -6635,7 +6656,7 @@
       <c r="I143" s="46"/>
       <c r="J143" s="52"/>
     </row>
-    <row r="144" spans="1:10" ht="18.95" customHeight="1">
+    <row r="144" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="10"/>
       <c r="C144" s="11"/>
@@ -6653,7 +6674,7 @@
       <c r="I144" s="46"/>
       <c r="J144" s="52"/>
     </row>
-    <row r="145" spans="1:10" ht="18.95" customHeight="1">
+    <row r="145" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="10"/>
       <c r="C145" s="8" t="s">
@@ -6673,7 +6694,7 @@
       <c r="I145" s="46"/>
       <c r="J145" s="52"/>
     </row>
-    <row r="146" spans="1:10" ht="38.25" customHeight="1">
+    <row r="146" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
@@ -6691,7 +6712,7 @@
       <c r="I146" s="46"/>
       <c r="J146" s="52"/>
     </row>
-    <row r="147" spans="1:10" ht="18.95" customHeight="1">
+    <row r="147" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
@@ -6709,7 +6730,7 @@
       <c r="I147" s="46"/>
       <c r="J147" s="52"/>
     </row>
-    <row r="148" spans="1:10" ht="18.95" customHeight="1">
+    <row r="148" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="10"/>
       <c r="C148" s="8" t="s">
@@ -6729,7 +6750,7 @@
       <c r="I148" s="46"/>
       <c r="J148" s="52"/>
     </row>
-    <row r="149" spans="1:10" ht="18.95" customHeight="1">
+    <row r="149" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
@@ -6747,7 +6768,7 @@
       <c r="I149" s="46"/>
       <c r="J149" s="52"/>
     </row>
-    <row r="150" spans="1:10" ht="18.95" customHeight="1">
+    <row r="150" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="10"/>
       <c r="C150" s="8" t="s">
@@ -6767,7 +6788,7 @@
       <c r="I150" s="46"/>
       <c r="J150" s="52"/>
     </row>
-    <row r="151" spans="1:10" ht="18.95" customHeight="1">
+    <row r="151" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -6785,7 +6806,7 @@
       <c r="I151" s="46"/>
       <c r="J151" s="52"/>
     </row>
-    <row r="152" spans="1:10" ht="18.95" customHeight="1">
+    <row r="152" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="10"/>
       <c r="C152" s="10"/>
@@ -6803,7 +6824,7 @@
       <c r="I152" s="46"/>
       <c r="J152" s="52"/>
     </row>
-    <row r="153" spans="1:10" ht="18.95" customHeight="1">
+    <row r="153" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
@@ -6821,7 +6842,7 @@
       <c r="I153" s="46"/>
       <c r="J153" s="52"/>
     </row>
-    <row r="154" spans="1:10" ht="18.95" customHeight="1">
+    <row r="154" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="10"/>
       <c r="C154" s="9" t="s">
@@ -6841,7 +6862,7 @@
       <c r="I154" s="46"/>
       <c r="J154" s="52"/>
     </row>
-    <row r="155" spans="1:10" ht="18.95" customHeight="1">
+    <row r="155" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="10"/>
       <c r="C155" s="8" t="s">
@@ -6861,7 +6882,7 @@
       <c r="I155" s="46"/>
       <c r="J155" s="52"/>
     </row>
-    <row r="156" spans="1:10" ht="18.95" customHeight="1">
+    <row r="156" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
@@ -6879,7 +6900,7 @@
       <c r="I156" s="46"/>
       <c r="J156" s="52"/>
     </row>
-    <row r="157" spans="1:10" ht="18.95" customHeight="1">
+    <row r="157" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="36"/>
       <c r="C157" s="9" t="s">
@@ -6919,28 +6940,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:G117"/>
+  <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="9.796875" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" style="81" customWidth="1"/>
     <col min="4" max="4" width="41.8984375" style="66" customWidth="1"/>
-    <col min="5" max="6" width="7.796875" style="66" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="66" customWidth="1"/>
-    <col min="8" max="258" width="7.59765625" customWidth="1"/>
+    <col min="5" max="7" width="7.796875" style="66" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="66" customWidth="1"/>
+    <col min="9" max="259" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18" customHeight="1">
+    <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="69" t="s">
         <v>322</v>
       </c>
@@ -6954,13 +6975,16 @@
         <v>324</v>
       </c>
       <c r="F1" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="2:7" ht="73.5" customHeight="1">
+    <row r="2" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="70">
         <v>42687</v>
       </c>
@@ -6973,12 +6997,13 @@
       <c r="E2" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="2:7" ht="143.25" customHeight="1">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="2:8" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="70">
         <v>42687</v>
       </c>
@@ -6991,12 +7016,13 @@
       <c r="E3" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F3" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="2:7" ht="57" customHeight="1">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="2:8" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="70">
         <v>42687</v>
       </c>
@@ -7009,12 +7035,13 @@
       <c r="E4" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F4" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="2:7" ht="101.25" customHeight="1">
+      <c r="F4" s="53"/>
+      <c r="G4" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="70">
         <v>42687</v>
       </c>
@@ -7027,12 +7054,13 @@
       <c r="E5" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="2:7" ht="69.75" customHeight="1">
+      <c r="F5" s="53"/>
+      <c r="G5" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="2:8" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="70">
         <v>42687</v>
       </c>
@@ -7045,12 +7073,13 @@
       <c r="E6" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F6" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="2:7" ht="69">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="2:8" ht="69" x14ac:dyDescent="0.2">
       <c r="B7" s="70">
         <v>42687</v>
       </c>
@@ -7063,12 +7092,13 @@
       <c r="E7" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G7" s="53"/>
-    </row>
-    <row r="8" spans="2:7" ht="18" customHeight="1">
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="70">
         <v>42687</v>
       </c>
@@ -7081,12 +7111,13 @@
       <c r="E8" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F8" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="2:7" ht="18" customHeight="1">
+      <c r="F8" s="53"/>
+      <c r="G8" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="70">
         <v>42687</v>
       </c>
@@ -7099,12 +7130,13 @@
       <c r="E9" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F9" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="2:7" ht="18" customHeight="1">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="70">
         <v>42687</v>
       </c>
@@ -7117,12 +7149,13 @@
       <c r="E10" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G10" s="53"/>
-    </row>
-    <row r="11" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="70">
         <v>42687</v>
       </c>
@@ -7133,12 +7166,13 @@
       <c r="E11" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="2:7" ht="39.75" customHeight="1">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="70">
         <v>42687</v>
       </c>
@@ -7149,12 +7183,13 @@
       <c r="E12" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F12" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="2:7" ht="39.75" customHeight="1">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="70">
         <v>42687</v>
       </c>
@@ -7165,12 +7200,13 @@
       <c r="E13" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F13" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="2:7" ht="48.75" customHeight="1">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="70">
         <v>42687</v>
       </c>
@@ -7181,12 +7217,13 @@
       <c r="E14" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F14" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="2:7" ht="54.75" customHeight="1">
+      <c r="F14" s="53"/>
+      <c r="G14" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="70">
         <v>42687</v>
       </c>
@@ -7197,12 +7234,13 @@
       <c r="E15" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F15" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="53"/>
+    </row>
+    <row r="16" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="70">
         <v>42687</v>
       </c>
@@ -7215,12 +7253,13 @@
       <c r="E16" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F16" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F16" s="53"/>
+      <c r="G16" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="70">
         <v>42687</v>
       </c>
@@ -7231,12 +7270,13 @@
       <c r="E17" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F17" s="53"/>
+      <c r="G17" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="70">
         <v>42687</v>
       </c>
@@ -7247,12 +7287,13 @@
       <c r="E18" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F18" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="53"/>
+    </row>
+    <row r="19" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="70">
         <v>42687</v>
       </c>
@@ -7263,12 +7304,13 @@
       <c r="E19" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F19" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G19" s="53"/>
-    </row>
-    <row r="20" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F19" s="53"/>
+      <c r="G19" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="70">
         <v>42687</v>
       </c>
@@ -7281,12 +7323,13 @@
       <c r="E20" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F20" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F20" s="53"/>
+      <c r="G20" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="70">
         <v>42687</v>
       </c>
@@ -7297,12 +7340,13 @@
       <c r="E21" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F21" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="53"/>
-    </row>
-    <row r="22" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F21" s="53"/>
+      <c r="G21" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="53"/>
+    </row>
+    <row r="22" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="70">
         <v>42687</v>
       </c>
@@ -7315,12 +7359,13 @@
       <c r="E22" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F22" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G22" s="53"/>
-    </row>
-    <row r="23" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F22" s="53"/>
+      <c r="G22" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="70">
         <v>42687</v>
       </c>
@@ -7331,12 +7376,13 @@
       <c r="E23" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="2:7" ht="36.75" customHeight="1">
+      <c r="F23" s="53"/>
+      <c r="G23" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="70">
         <v>42687</v>
       </c>
@@ -7347,12 +7393,13 @@
       <c r="E24" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F24" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="53"/>
-    </row>
-    <row r="25" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F24" s="53"/>
+      <c r="G24" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="70">
         <v>42687</v>
       </c>
@@ -7363,12 +7410,13 @@
       <c r="E25" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F25" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="53"/>
-    </row>
-    <row r="26" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F25" s="53"/>
+      <c r="G25" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="70">
         <v>42687</v>
       </c>
@@ -7379,12 +7427,13 @@
       <c r="E26" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="53"/>
-    </row>
-    <row r="27" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F26" s="53"/>
+      <c r="G26" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="70">
         <v>42687</v>
       </c>
@@ -7395,12 +7444,13 @@
       <c r="E27" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F27" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F27" s="53"/>
+      <c r="G27" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="70">
         <v>42687</v>
       </c>
@@ -7413,12 +7463,13 @@
       <c r="E28" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F28" s="53"/>
+      <c r="G28" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="70">
         <v>42687</v>
       </c>
@@ -7429,12 +7480,13 @@
       <c r="E29" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F29" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F29" s="53"/>
+      <c r="G29" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="70">
         <v>42687</v>
       </c>
@@ -7445,12 +7497,13 @@
       <c r="E30" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F30" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="53"/>
-    </row>
-    <row r="31" spans="2:7" ht="24.75" customHeight="1">
+      <c r="F30" s="53"/>
+      <c r="G30" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="70">
         <v>42687</v>
       </c>
@@ -7463,12 +7516,13 @@
       <c r="E31" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F31" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G31" s="53"/>
-    </row>
-    <row r="32" spans="2:7" ht="20.25" customHeight="1">
+      <c r="F31" s="53"/>
+      <c r="G31" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="70">
         <v>42701</v>
       </c>
@@ -7483,52 +7537,56 @@
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
-    </row>
-    <row r="33" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="70">
         <v>42701</v>
       </c>
       <c r="C33" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>353</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>354</v>
       </c>
       <c r="E33" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
-    </row>
-    <row r="34" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="70">
         <v>42701</v>
       </c>
-      <c r="C34" s="89"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
-    </row>
-    <row r="35" spans="2:7" ht="35.25" customHeight="1">
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="2:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="70">
         <v>42701</v>
       </c>
-      <c r="C35" s="88"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E35" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
-    </row>
-    <row r="36" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H35" s="53"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="70">
         <v>42701</v>
       </c>
@@ -7543,8 +7601,9 @@
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
-    </row>
-    <row r="37" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H36" s="53"/>
+    </row>
+    <row r="37" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="70">
         <v>42701</v>
       </c>
@@ -7559,12 +7618,13 @@
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
-    </row>
-    <row r="38" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H37" s="53"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="70">
         <v>42701</v>
       </c>
-      <c r="C38" s="89"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="62" t="s">
         <v>333</v>
       </c>
@@ -7573,12 +7633,13 @@
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
-    </row>
-    <row r="39" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="70">
         <v>42701</v>
       </c>
-      <c r="C39" s="88"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="62" t="s">
         <v>334</v>
       </c>
@@ -7587,8 +7648,9 @@
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
-    </row>
-    <row r="40" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H39" s="53"/>
+    </row>
+    <row r="40" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="70">
         <v>42701</v>
       </c>
@@ -7603,12 +7665,13 @@
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
-    </row>
-    <row r="41" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H40" s="53"/>
+    </row>
+    <row r="41" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="70">
         <v>42701</v>
       </c>
-      <c r="C41" s="89"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="62" t="s">
         <v>337</v>
       </c>
@@ -7617,8 +7680,9 @@
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
-    </row>
-    <row r="42" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H41" s="53"/>
+    </row>
+    <row r="42" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="70">
         <v>42701</v>
       </c>
@@ -7633,12 +7697,13 @@
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
-    </row>
-    <row r="43" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H42" s="53"/>
+    </row>
+    <row r="43" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="70">
         <v>42701</v>
       </c>
-      <c r="C43" s="88"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="62" t="s">
         <v>340</v>
       </c>
@@ -7647,8 +7712,9 @@
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
-    </row>
-    <row r="44" spans="2:7" ht="22.5" customHeight="1">
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="70">
         <v>42701</v>
       </c>
@@ -7662,11 +7728,14 @@
         <v>323</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G44" s="53"/>
-    </row>
-    <row r="45" spans="2:7" ht="22.5" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="70">
         <v>42701</v>
       </c>
@@ -7680,25 +7749,33 @@
         <v>323</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G45" s="53"/>
-    </row>
-    <row r="46" spans="2:7" ht="22.5" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="G45" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H45" s="53"/>
+    </row>
+    <row r="46" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="70">
         <v>42701</v>
       </c>
-      <c r="C46" s="88"/>
+      <c r="C46" s="89"/>
       <c r="D46" s="62" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E46" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="2:7" ht="22.5" customHeight="1">
+      <c r="F46" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G46" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" s="53"/>
+    </row>
+    <row r="47" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="70">
         <v>42701</v>
       </c>
@@ -7706,29 +7783,41 @@
         <v>345</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E47" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-    </row>
-    <row r="48" spans="2:7" ht="22.5" customHeight="1">
+      <c r="F47" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H47" s="53" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="70">
         <v>42701</v>
       </c>
-      <c r="C48" s="88"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="62" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E48" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-    </row>
-    <row r="49" spans="2:7" ht="22.5" customHeight="1">
+      <c r="F48" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H48" s="53"/>
+    </row>
+    <row r="49" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="70">
         <v>42701</v>
       </c>
@@ -7736,29 +7825,35 @@
         <v>346</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E49" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F49" s="53"/>
+      <c r="F49" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G49" s="53"/>
-    </row>
-    <row r="50" spans="2:7" ht="22.5" customHeight="1">
+      <c r="H49" s="53"/>
+    </row>
+    <row r="50" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="70">
         <v>42701</v>
       </c>
-      <c r="C50" s="88"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="62" t="s">
         <v>347</v>
       </c>
       <c r="E50" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F50" s="53"/>
+      <c r="F50" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G50" s="53"/>
-    </row>
-    <row r="51" spans="2:7" ht="38.25" customHeight="1">
+      <c r="H50" s="53"/>
+    </row>
+    <row r="51" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="70">
         <v>42701</v>
       </c>
@@ -7766,697 +7861,796 @@
         <v>348</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E51" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G51" s="53"/>
-    </row>
-    <row r="52" spans="2:7" ht="22.5" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="G51" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="53"/>
+    </row>
+    <row r="52" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="70">
         <v>42701</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E52" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F52" s="53"/>
+      <c r="F52" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G52" s="53"/>
-    </row>
-    <row r="53" spans="2:7" ht="22.5" customHeight="1">
+      <c r="H52" s="53"/>
+    </row>
+    <row r="53" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="70">
         <v>42701</v>
       </c>
       <c r="C53" s="78" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>351</v>
-      </c>
-      <c r="D53" s="62" t="s">
-        <v>352</v>
       </c>
       <c r="E53" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G53" s="53"/>
-    </row>
-    <row r="54" spans="2:7" ht="22.5" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="53"/>
+    </row>
+    <row r="54" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="70">
         <v>42701</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E54" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F54" s="53"/>
+      <c r="F54" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G54" s="53"/>
-    </row>
-    <row r="55" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H54" s="53"/>
+    </row>
+    <row r="55" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="70">
         <v>42701</v>
       </c>
-      <c r="C55" s="88"/>
+      <c r="C55" s="89"/>
       <c r="D55" s="62" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E55" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="53"/>
+      <c r="F55" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G55" s="53"/>
-    </row>
-    <row r="56" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H55" s="53"/>
+    </row>
+    <row r="56" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="70">
         <v>42701</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E56" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F56" s="53"/>
+      <c r="F56" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G56" s="53"/>
-    </row>
-    <row r="57" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="70">
         <v>42701</v>
       </c>
-      <c r="C57" s="89"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="62" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E57" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F57" s="53"/>
+      <c r="F57" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G57" s="53"/>
-    </row>
-    <row r="58" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H57" s="53"/>
+    </row>
+    <row r="58" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="70">
         <v>42701</v>
       </c>
-      <c r="C58" s="89"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E58" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F58" s="53"/>
+      <c r="F58" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G58" s="53"/>
-    </row>
-    <row r="59" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H58" s="53"/>
+    </row>
+    <row r="59" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70">
         <v>42701</v>
       </c>
-      <c r="C59" s="89"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="62" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E59" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="53"/>
+      <c r="F59" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G59" s="53"/>
-    </row>
-    <row r="60" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H59" s="53"/>
+    </row>
+    <row r="60" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="70">
         <v>42701</v>
       </c>
-      <c r="C60" s="89"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E60" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F60" s="53"/>
+      <c r="F60" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G60" s="53"/>
-    </row>
-    <row r="61" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H60" s="53"/>
+    </row>
+    <row r="61" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="70">
         <v>42701</v>
       </c>
-      <c r="C61" s="88"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="62" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E61" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-    </row>
-    <row r="62" spans="2:7" ht="20.25" customHeight="1">
+      <c r="F61" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G61" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H61" s="53"/>
+    </row>
+    <row r="62" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="70">
         <v>42701</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G62" s="53"/>
-    </row>
-    <row r="63" spans="2:7" ht="20.25" customHeight="1">
+        <v>386</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="53"/>
+    </row>
+    <row r="63" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="70">
         <v>42701</v>
       </c>
-      <c r="C63" s="88"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="62" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E63" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-    </row>
-    <row r="64" spans="2:7" ht="20.25" customHeight="1">
+      <c r="F63" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="H63" s="53"/>
+    </row>
+    <row r="64" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="70">
         <v>42701</v>
       </c>
       <c r="C64" s="78" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E64" s="53" t="s">
         <v>323</v>
       </c>
-      <c r="F64" s="53"/>
+      <c r="F64" s="53" t="s">
+        <v>386</v>
+      </c>
       <c r="G64" s="53"/>
-    </row>
-    <row r="65" spans="2:7" ht="20.25" customHeight="1">
+      <c r="H64" s="53"/>
+    </row>
+    <row r="65" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="70">
         <v>42701</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F65" s="53"/>
       <c r="G65" s="53"/>
-    </row>
-    <row r="66" spans="2:7" ht="41.25" customHeight="1">
+      <c r="H65" s="53"/>
+    </row>
+    <row r="66" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="70">
         <v>42701</v>
       </c>
-      <c r="C66" s="89"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="62" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E66" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
-    </row>
-    <row r="67" spans="2:7" ht="52.5" customHeight="1">
+      <c r="H66" s="53"/>
+    </row>
+    <row r="67" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="70">
         <v>42701</v>
       </c>
-      <c r="C67" s="89"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="62" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E67" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
-    </row>
-    <row r="68" spans="2:7" ht="33.75" customHeight="1">
+      <c r="H67" s="53"/>
+    </row>
+    <row r="68" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="70">
         <v>42701</v>
       </c>
-      <c r="C68" s="89"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="62" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E68" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
-    </row>
-    <row r="69" spans="2:7" ht="24" customHeight="1">
+      <c r="H68" s="53"/>
+    </row>
+    <row r="69" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="70">
         <v>42701</v>
       </c>
-      <c r="C69" s="89"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="62" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E69" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
-    </row>
-    <row r="70" spans="2:7" ht="24" customHeight="1">
+      <c r="H69" s="53"/>
+    </row>
+    <row r="70" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="70">
         <v>42701</v>
       </c>
-      <c r="C70" s="89"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="62" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
-    </row>
-    <row r="71" spans="2:7" ht="24" customHeight="1">
+      <c r="H70" s="53"/>
+    </row>
+    <row r="71" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="70">
         <v>42701</v>
       </c>
-      <c r="C71" s="88"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="62" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E71" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
-    </row>
-    <row r="72" spans="2:7" ht="48" customHeight="1">
+      <c r="H71" s="53"/>
+    </row>
+    <row r="72" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="70">
         <v>42701</v>
       </c>
       <c r="C72" s="78" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D72" s="62" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F72" s="53"/>
       <c r="G72" s="53"/>
-    </row>
-    <row r="73" spans="2:7" ht="24" customHeight="1">
+      <c r="H72" s="53"/>
+    </row>
+    <row r="73" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="70">
         <v>42701</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E73" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F73" s="53"/>
       <c r="G73" s="53"/>
-    </row>
-    <row r="74" spans="2:7" ht="24" customHeight="1">
+      <c r="H73" s="53"/>
+    </row>
+    <row r="74" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="65"/>
       <c r="C74" s="78"/>
       <c r="D74" s="62"/>
       <c r="E74" s="53"/>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
-    </row>
-    <row r="75" spans="2:7" ht="24" customHeight="1">
+      <c r="H74" s="53"/>
+    </row>
+    <row r="75" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="65"/>
       <c r="C75" s="78"/>
       <c r="D75" s="62"/>
       <c r="E75" s="53"/>
       <c r="F75" s="53"/>
       <c r="G75" s="53"/>
-    </row>
-    <row r="76" spans="2:7" ht="24" customHeight="1">
+      <c r="H75" s="53"/>
+    </row>
+    <row r="76" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="65"/>
       <c r="C76" s="78"/>
       <c r="D76" s="62"/>
       <c r="E76" s="53"/>
       <c r="F76" s="53"/>
       <c r="G76" s="53"/>
-    </row>
-    <row r="77" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H76" s="53"/>
+    </row>
+    <row r="77" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="65"/>
       <c r="C77" s="78"/>
       <c r="D77" s="62"/>
       <c r="E77" s="53"/>
       <c r="F77" s="53"/>
       <c r="G77" s="53"/>
-    </row>
-    <row r="78" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H77" s="53"/>
+    </row>
+    <row r="78" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="65"/>
       <c r="C78" s="78"/>
       <c r="D78" s="62"/>
       <c r="E78" s="53"/>
       <c r="F78" s="53"/>
       <c r="G78" s="53"/>
-    </row>
-    <row r="79" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H78" s="53"/>
+    </row>
+    <row r="79" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="65"/>
       <c r="C79" s="78"/>
       <c r="D79" s="62"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
       <c r="G79" s="53"/>
-    </row>
-    <row r="80" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H79" s="53"/>
+    </row>
+    <row r="80" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="65"/>
       <c r="C80" s="78"/>
       <c r="D80" s="62"/>
       <c r="E80" s="53"/>
       <c r="F80" s="53"/>
       <c r="G80" s="53"/>
-    </row>
-    <row r="81" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H80" s="53"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="65"/>
       <c r="C81" s="78"/>
       <c r="D81" s="62"/>
       <c r="E81" s="53"/>
       <c r="F81" s="53"/>
       <c r="G81" s="53"/>
-    </row>
-    <row r="82" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H81" s="53"/>
+    </row>
+    <row r="82" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="65"/>
       <c r="C82" s="78"/>
       <c r="D82" s="62"/>
       <c r="E82" s="53"/>
       <c r="F82" s="53"/>
       <c r="G82" s="53"/>
-    </row>
-    <row r="83" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H82" s="53"/>
+    </row>
+    <row r="83" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="65"/>
       <c r="C83" s="78"/>
       <c r="D83" s="62"/>
       <c r="E83" s="53"/>
       <c r="F83" s="53"/>
       <c r="G83" s="53"/>
-    </row>
-    <row r="84" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H83" s="53"/>
+    </row>
+    <row r="84" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="65"/>
       <c r="C84" s="78"/>
       <c r="D84" s="62"/>
       <c r="E84" s="53"/>
       <c r="F84" s="53"/>
       <c r="G84" s="53"/>
-    </row>
-    <row r="85" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H84" s="53"/>
+    </row>
+    <row r="85" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="65"/>
       <c r="C85" s="78"/>
       <c r="D85" s="62"/>
       <c r="E85" s="53"/>
       <c r="F85" s="53"/>
       <c r="G85" s="53"/>
-    </row>
-    <row r="86" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H85" s="53"/>
+    </row>
+    <row r="86" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="65"/>
       <c r="C86" s="78"/>
       <c r="D86" s="62"/>
       <c r="E86" s="53"/>
       <c r="F86" s="53"/>
       <c r="G86" s="53"/>
-    </row>
-    <row r="87" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H86" s="53"/>
+    </row>
+    <row r="87" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="65"/>
       <c r="C87" s="78"/>
       <c r="D87" s="62"/>
       <c r="E87" s="53"/>
       <c r="F87" s="53"/>
       <c r="G87" s="53"/>
-    </row>
-    <row r="88" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H87" s="53"/>
+    </row>
+    <row r="88" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="65"/>
       <c r="C88" s="78"/>
       <c r="D88" s="62"/>
       <c r="E88" s="53"/>
       <c r="F88" s="53"/>
       <c r="G88" s="53"/>
-    </row>
-    <row r="89" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H88" s="53"/>
+    </row>
+    <row r="89" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="65"/>
       <c r="C89" s="78"/>
       <c r="D89" s="62"/>
       <c r="E89" s="53"/>
       <c r="F89" s="53"/>
       <c r="G89" s="53"/>
-    </row>
-    <row r="90" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H89" s="53"/>
+    </row>
+    <row r="90" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="65"/>
       <c r="C90" s="78"/>
       <c r="D90" s="62"/>
       <c r="E90" s="53"/>
       <c r="F90" s="53"/>
       <c r="G90" s="53"/>
-    </row>
-    <row r="91" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H90" s="53"/>
+    </row>
+    <row r="91" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="65"/>
       <c r="C91" s="78"/>
       <c r="D91" s="62"/>
       <c r="E91" s="53"/>
       <c r="F91" s="53"/>
       <c r="G91" s="53"/>
-    </row>
-    <row r="92" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H91" s="53"/>
+    </row>
+    <row r="92" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="65"/>
       <c r="C92" s="78"/>
       <c r="D92" s="62"/>
       <c r="E92" s="53"/>
       <c r="F92" s="53"/>
       <c r="G92" s="53"/>
-    </row>
-    <row r="93" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H92" s="53"/>
+    </row>
+    <row r="93" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="65"/>
       <c r="C93" s="78"/>
       <c r="D93" s="62"/>
       <c r="E93" s="53"/>
       <c r="F93" s="53"/>
       <c r="G93" s="53"/>
-    </row>
-    <row r="94" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H93" s="53"/>
+    </row>
+    <row r="94" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="65"/>
       <c r="C94" s="78"/>
       <c r="D94" s="62"/>
       <c r="E94" s="53"/>
       <c r="F94" s="53"/>
       <c r="G94" s="53"/>
-    </row>
-    <row r="95" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H94" s="53"/>
+    </row>
+    <row r="95" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="65"/>
       <c r="C95" s="78"/>
       <c r="D95" s="62"/>
       <c r="E95" s="53"/>
       <c r="F95" s="53"/>
       <c r="G95" s="53"/>
-    </row>
-    <row r="96" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H95" s="53"/>
+    </row>
+    <row r="96" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="65"/>
       <c r="C96" s="78"/>
       <c r="D96" s="62"/>
       <c r="E96" s="53"/>
       <c r="F96" s="53"/>
       <c r="G96" s="53"/>
-    </row>
-    <row r="97" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H96" s="53"/>
+    </row>
+    <row r="97" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="65"/>
       <c r="C97" s="78"/>
       <c r="D97" s="62"/>
       <c r="E97" s="53"/>
       <c r="F97" s="53"/>
       <c r="G97" s="53"/>
-    </row>
-    <row r="98" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H97" s="53"/>
+    </row>
+    <row r="98" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="65"/>
       <c r="C98" s="78"/>
       <c r="D98" s="62"/>
       <c r="E98" s="53"/>
       <c r="F98" s="53"/>
       <c r="G98" s="53"/>
-    </row>
-    <row r="99" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H98" s="53"/>
+    </row>
+    <row r="99" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="65"/>
       <c r="C99" s="78"/>
       <c r="D99" s="62"/>
       <c r="E99" s="53"/>
       <c r="F99" s="53"/>
       <c r="G99" s="53"/>
-    </row>
-    <row r="100" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H99" s="53"/>
+    </row>
+    <row r="100" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="65"/>
       <c r="C100" s="78"/>
       <c r="D100" s="62"/>
       <c r="E100" s="53"/>
       <c r="F100" s="53"/>
       <c r="G100" s="53"/>
-    </row>
-    <row r="101" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H100" s="53"/>
+    </row>
+    <row r="101" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="65"/>
       <c r="C101" s="78"/>
       <c r="D101" s="62"/>
       <c r="E101" s="53"/>
       <c r="F101" s="53"/>
       <c r="G101" s="53"/>
-    </row>
-    <row r="102" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H101" s="53"/>
+    </row>
+    <row r="102" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="65"/>
       <c r="C102" s="78"/>
       <c r="D102" s="62"/>
       <c r="E102" s="53"/>
       <c r="F102" s="53"/>
       <c r="G102" s="53"/>
-    </row>
-    <row r="103" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H102" s="53"/>
+    </row>
+    <row r="103" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="65"/>
       <c r="C103" s="78"/>
       <c r="D103" s="62"/>
       <c r="E103" s="53"/>
       <c r="F103" s="53"/>
       <c r="G103" s="53"/>
-    </row>
-    <row r="104" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H103" s="53"/>
+    </row>
+    <row r="104" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="65"/>
       <c r="C104" s="78"/>
       <c r="D104" s="62"/>
       <c r="E104" s="53"/>
       <c r="F104" s="53"/>
       <c r="G104" s="53"/>
-    </row>
-    <row r="105" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H104" s="53"/>
+    </row>
+    <row r="105" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="65"/>
       <c r="C105" s="78"/>
       <c r="D105" s="62"/>
       <c r="E105" s="53"/>
       <c r="F105" s="53"/>
       <c r="G105" s="53"/>
-    </row>
-    <row r="106" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H105" s="53"/>
+    </row>
+    <row r="106" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="65"/>
       <c r="C106" s="78"/>
       <c r="D106" s="62"/>
       <c r="E106" s="53"/>
       <c r="F106" s="53"/>
       <c r="G106" s="53"/>
-    </row>
-    <row r="107" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H106" s="53"/>
+    </row>
+    <row r="107" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="65"/>
       <c r="C107" s="78"/>
       <c r="D107" s="62"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
       <c r="G107" s="53"/>
-    </row>
-    <row r="108" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H107" s="53"/>
+    </row>
+    <row r="108" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="65"/>
       <c r="C108" s="78"/>
       <c r="D108" s="62"/>
       <c r="E108" s="53"/>
       <c r="F108" s="53"/>
       <c r="G108" s="53"/>
-    </row>
-    <row r="109" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H108" s="53"/>
+    </row>
+    <row r="109" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="65"/>
       <c r="C109" s="78"/>
       <c r="D109" s="62"/>
       <c r="E109" s="53"/>
       <c r="F109" s="53"/>
       <c r="G109" s="53"/>
-    </row>
-    <row r="110" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H109" s="53"/>
+    </row>
+    <row r="110" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="65"/>
       <c r="C110" s="78"/>
       <c r="D110" s="62"/>
       <c r="E110" s="53"/>
       <c r="F110" s="53"/>
       <c r="G110" s="53"/>
-    </row>
-    <row r="111" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H110" s="53"/>
+    </row>
+    <row r="111" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="65"/>
       <c r="C111" s="78"/>
       <c r="D111" s="62"/>
       <c r="E111" s="53"/>
       <c r="F111" s="53"/>
       <c r="G111" s="53"/>
-    </row>
-    <row r="112" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H111" s="53"/>
+    </row>
+    <row r="112" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="65"/>
       <c r="C112" s="78"/>
       <c r="D112" s="62"/>
       <c r="E112" s="53"/>
       <c r="F112" s="53"/>
       <c r="G112" s="53"/>
-    </row>
-    <row r="113" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H112" s="53"/>
+    </row>
+    <row r="113" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="65"/>
       <c r="C113" s="78"/>
       <c r="D113" s="62"/>
       <c r="E113" s="53"/>
       <c r="F113" s="53"/>
       <c r="G113" s="53"/>
-    </row>
-    <row r="114" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H113" s="53"/>
+    </row>
+    <row r="114" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="65"/>
       <c r="C114" s="78"/>
       <c r="D114" s="62"/>
       <c r="E114" s="53"/>
       <c r="F114" s="53"/>
       <c r="G114" s="53"/>
-    </row>
-    <row r="115" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H114" s="53"/>
+    </row>
+    <row r="115" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="65"/>
       <c r="C115" s="78"/>
       <c r="D115" s="62"/>
       <c r="E115" s="53"/>
       <c r="F115" s="53"/>
       <c r="G115" s="53"/>
-    </row>
-    <row r="116" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H115" s="53"/>
+    </row>
+    <row r="116" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="65"/>
       <c r="C116" s="78"/>
       <c r="D116" s="62"/>
       <c r="E116" s="53"/>
       <c r="F116" s="53"/>
       <c r="G116" s="53"/>
-    </row>
-    <row r="117" spans="2:7" ht="13.5" customHeight="1">
+      <c r="H116" s="53"/>
+    </row>
+    <row r="117" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="65"/>
       <c r="C117" s="78"/>
       <c r="D117" s="62"/>
       <c r="E117" s="53"/>
       <c r="F117" s="53"/>
       <c r="G117" s="53"/>
+      <c r="H117" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8474,13 +8668,13 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G74:G117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H74:H117">
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E73 F2:F43">
       <formula1>"易用性,新功能"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G73">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8493,7 +8687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8501,76 +8695,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="7.59765625" style="2" customWidth="1"/>
     <col min="6" max="256" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1">
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1">
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="394">
   <si>
     <t>系统</t>
   </si>
@@ -1191,468 +1191,470 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  1：msn、qq、网页—客户都觉得用不到
-  2：增加地址（网页字段改过去）
-  3：增加性别：（男女）
+    <t>文交所信息页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
+ 2： 忘记取消商品的联动总金额功能
+  3：交定金的话对应库存不减</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品种类可以选多个</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束接待</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置接待时长为3个小时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计功能</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计以日为单位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.柱状图考虑换成折线图</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.出库明细统计改为（销售结算表）还有出库明细表
+出库明细加名称和日期条件查询</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一名称：接待、展厅、业务员—改为接待  只有两项（客服、接待）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">顶部菜单可以合并
+（接待统计和业务员统计合并）（机构业绩统计、个人业绩）
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>文交所信息页面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：增加文交所下拉菜单格式
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>登门出单统计：
+ 将查询数据改为时间范围查询
+  列表加接待时间计算、合计项</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白客户</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>模版中可以对电话位数进行限制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定导出时间分段导出—按时间分批导出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表中上次电联时间改为上次导入时间</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>成单锁定</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的Excel表格和之前客户给的表格样式统一</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单都改为出单字体</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务员业务每日统计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长以分为单位</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>把详细情况显示出来（对应客户类型下的数量）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管审批的时候也要有详细情况</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独的审批页面（页面中包含所有详细）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>主管首页也要有个统计的页面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务相关</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击打印的时候，少了一项全款已付货未取</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印的时候选项分人打印（财务和库房）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务审批的时候出现错误直接删除（不要审核错误）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>退货加审批/删除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印：针孔打印机  调用打印机接口问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入导出优化，导出多个sheet页</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批页面转到统计页面，在下面有个审批按钮（总结下面的）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计工时</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>易用性</t>
+  </si>
+  <si>
+    <t>修改类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能</t>
+  </si>
+  <si>
+    <t>完成情况</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库打印</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">仓库：全款已付货未取（货未取）、收藏票（货已经出）  </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品详情信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">加code </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人业绩审核加一列（审核状态+审核人员）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>业绩审核</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付类型 为定金支付（订单类型变为退款）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款收据 --&gt; 定金收据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售结算明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存入账户：卡1  。收款方式：信用卡、储蓄卡、现金。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加手续费=金额-实际入账</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待统计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接待统计，变为一个页面。保留下面的客户及业绩统计，加上新客户和合计。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登门统计和接待统计 放在一起。改名为“接待统计”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>电联管理改为数据管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户概览页</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买历史列表中的订单改为成单；</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购商品（名称修改）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤单</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额（不做汇总）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改客户信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>售价改为单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>去结算</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后多个alert测试内容</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务工作池</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印收银：收款收据单 定金单据</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付接口选择可能需要增加表（订单和卡的关联关系表）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务确认收款的时候录入收款方式、及收款方式、加备注（手续费待定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购记录</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表：回购订单后加编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交金额和成交日期挪到商品信息列表中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购时，回购金额为手动输入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购可能出现多次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定单管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>退换货时针对于商品来操作的，不是针对于订单的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金结算明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库单（加实际入账）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款方式（加金额：实际入账、备注 、支付方式、账户）。手工录入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金结算表（排除回购之外）
+序号、账户、支付方式、金额、实际入账、手续费（金额-实际入账）、备注（手写）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户： 卡1~6 + 现金、打款户、刷卡定金（支付定金为刷卡，定金已回款）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付方式：信用卡、储蓄卡（封顶）、储蓄卡（不封顶）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计模式：正常销售、定金</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计时，没有的不显示。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日刷卡定金明细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠品库存表</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>登门的赠品（登门）和购买的赠品（VIP）区分。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后新增改为金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日的刷卡的定金统计，明细。
+统计缴纳定金时：刷卡支付</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史列表中加链接，点击进入详细</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买金额</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品列中：增加单价、金额合计</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定金管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件：售卖金额改为定金日期范围查询</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将原来的成交金额和成交日期改为回购金额、回购日期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人员</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tina</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品信息中显示原有单价</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购模块重新
+显示order—detail为主。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户所属区域改为：根据接待所属区域走，进入页面就指定了，不需要修改</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称需要修改（待确定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>定单管理改为退换货管理</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>1：数据库加单位字段
+  2：配送弹窗中加单位
+  3：赠品弹窗中售价改为库存数量
+  4：!!!选择赠品的地方加特殊审批流程</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：增加文交所下拉菜单格式
   2：多个文交所的情况会有一个是默认的；
   3：以身份证进行关联
   4：将客户姓名放到前面
   5：增加是否绑定银行卡
-  6：把绑定银行卡改为开户行名称
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买商品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1：数据库加单位字段
-  2：配送弹窗中加单位
-  3：赠品弹窗中售价改为库存数量
-  4：!!!选择赠品的地方加特殊审批流程
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：忘记加结算接口（是不是支付方式-现金、刷卡（借记卡/信用卡）等）
- 2： 忘记取消商品的联动总金额功能
-  3：交定金的话对应库存不减</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取赠品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠品种类可以选多个</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束接待</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置接待时长为3个小时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计以日为单位</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.柱状图考虑换成折线图</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.出库明细统计改为（销售结算表）还有出库明细表
-出库明细加名称和日期条件查询</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一名称：接待、展厅、业务员—改为接待  只有两项（客服、接待）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">顶部菜单可以合并
-（接待统计和业务员统计合并）（机构业绩统计、个人业绩）
-</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>登门出单统计：
- 将查询数据改为时间范围查询
-  列表加接待时间计算、合计项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>空白客户</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>模版中可以对电话位数进行限制</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定导出时间分段导出—按时间分批导出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表中上次电联时间改为上次导入时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>成单锁定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的Excel表格和之前客户给的表格样式统一</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单都改为出单字体</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务员业务每日统计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长以分为单位</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>把详细情况显示出来（对应客户类型下的数量）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管审批的时候也要有详细情况</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>单独的审批页面（页面中包含所有详细）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>主管首页也要有个统计的页面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务相关</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击打印的时候，少了一项全款已付货未取</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印的时候选项分人打印（财务和库房）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务审批的时候出现错误直接删除（不要审核错误）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>退货加审批/删除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印：针孔打印机  调用打印机接口问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入导出优化，导出多个sheet页</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>审批页面转到统计页面，在下面有个审批按钮（总结下面的）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计工时</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>易用性</t>
-  </si>
-  <si>
-    <t>修改类型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新功能</t>
-  </si>
-  <si>
-    <t>完成情况</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库打印</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">仓库：全款已付货未取（货未取）、收藏票（货已经出）  </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品详情信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">加code </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人业绩审核加一列（审核状态+审核人员）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>业绩审核</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付类型 为定金支付（订单类型变为退款）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款收据 --&gt; 定金收据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售结算明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>存入账户：卡1  。收款方式：信用卡、储蓄卡、现金。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加手续费=金额-实际入账</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接待统计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>接待统计，变为一个页面。保留下面的客户及业绩统计，加上新客户和合计。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登门统计和接待统计 放在一起。改名为“接待统计”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>电联管理改为数据管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户概览页</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买历史列表中的订单改为成单；</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购商品（名称修改）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>撤单</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退款金额（不做汇总）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改客户信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>售价改为单价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>去结算</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击之后多个alert测试内容</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务工作池</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印收银：收款收据单 定金单据</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付接口选择可能需要增加表（订单和卡的关联关系表）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务确认收款的时候录入收款方式、及收款方式、加备注（手续费待定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>列表：回购订单后加编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交金额和成交日期挪到商品信息列表中</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购时，回购金额为手动输入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购可能出现多次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定单管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>退换货时针对于商品来操作的，不是针对于订单的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠品特殊领取审批流程，审批之后库房要看到</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>领取赠品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金结算明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库单（加实际入账）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款方式（加金额：实际入账、备注 、支付方式、账户）。手工录入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金结算表（排除回购之外）
-序号、账户、支付方式、金额、实际入账、手续费（金额-实际入账）、备注（手写）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户： 卡1~6 + 现金、打款户、刷卡定金（支付定金为刷卡，定金已回款）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付方式：信用卡、储蓄卡（封顶）、储蓄卡（不封顶）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计模式：正常销售、定金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计时，没有的不显示。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日刷卡定金明细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠品库存表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>登门的赠品（登门）和购买的赠品（VIP）区分。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最后新增改为金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日的刷卡的定金统计，明细。
-统计缴纳定金时：刷卡支付</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>历史列表中加链接，点击进入详细</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买金额</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择赠品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买商品列中：增加单价、金额合计</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定金管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询条件：售卖金额改为定金日期范围查询</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>将原来的成交金额和成交日期改为回购金额、回购日期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人员</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tina</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品信息中显示原有单价</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回购模块重新
-显示order—detail为主。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户所属区域改为：根据接待所属区域走，进入页面就指定了，不需要修改</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>菜单名称需要修改（待确定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定单管理改为退换货管理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
+  6：把绑定银行卡改为开户行名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  1：msn、qq、网页—客户都觉得用不到
+  2：增加地址（网页字段改过去）
+  3：增加性别：（男女）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在购买商品时，新增特殊领取赠品业务。
+赠品特殊领取审批流程，审批之后库房要看到</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买商品-选择赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6946,8 +6948,8 @@
   </sheetPr>
   <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6963,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="69" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C1" s="79" t="s">
         <v>276</v>
@@ -6972,16 +6974,16 @@
         <v>275</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6995,7 +6997,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53" t="s">
@@ -7014,7 +7016,7 @@
         <v>280</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="53" t="s">
@@ -7030,10 +7032,10 @@
         <v>281</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -7041,18 +7043,18 @@
       </c>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="70">
         <v>42687</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53" t="s">
@@ -7065,13 +7067,13 @@
         <v>42687</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>286</v>
+        <v>388</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="53" t="s">
@@ -7084,13 +7086,13 @@
         <v>42687</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D7" s="62" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
@@ -7103,13 +7105,13 @@
         <v>42687</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53" t="s">
@@ -7122,13 +7124,13 @@
         <v>42687</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53" t="s">
@@ -7141,13 +7143,13 @@
         <v>42687</v>
       </c>
       <c r="C10" s="71" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53" t="s">
@@ -7161,10 +7163,10 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53" t="s">
@@ -7178,10 +7180,10 @@
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53" t="s">
@@ -7195,10 +7197,10 @@
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="67" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53" t="s">
@@ -7212,10 +7214,10 @@
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="67" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53" t="s">
@@ -7229,10 +7231,10 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="68" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53" t="s">
@@ -7245,13 +7247,13 @@
         <v>42687</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53" t="s">
@@ -7265,10 +7267,10 @@
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="67" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="53" t="s">
@@ -7282,10 +7284,10 @@
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="67" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53" t="s">
@@ -7299,10 +7301,10 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="53" t="s">
@@ -7315,13 +7317,13 @@
         <v>42687</v>
       </c>
       <c r="C20" s="71" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="53" t="s">
@@ -7335,10 +7337,10 @@
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="67" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="53" t="s">
@@ -7351,13 +7353,13 @@
         <v>42687</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E22" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="53" t="s">
@@ -7371,10 +7373,10 @@
       </c>
       <c r="C23" s="72"/>
       <c r="D23" s="67" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="53" t="s">
@@ -7388,10 +7390,10 @@
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" s="53" t="s">
         <v>320</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>323</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="53" t="s">
@@ -7405,10 +7407,10 @@
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="67" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="53" t="s">
@@ -7422,10 +7424,10 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="67" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F26" s="53"/>
       <c r="G26" s="53" t="s">
@@ -7439,10 +7441,10 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="67" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="53" t="s">
@@ -7455,13 +7457,13 @@
         <v>42687</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E28" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="53" t="s">
@@ -7475,10 +7477,10 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="67" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="53" t="s">
@@ -7492,10 +7494,10 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="67" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="53" t="s">
@@ -7508,13 +7510,13 @@
         <v>42687</v>
       </c>
       <c r="C31" s="77" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E31" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="53" t="s">
@@ -7527,13 +7529,13 @@
         <v>42701</v>
       </c>
       <c r="C32" s="78" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D32" s="62" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E32" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
@@ -7544,13 +7546,13 @@
         <v>42701</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E33" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
@@ -7562,10 +7564,10 @@
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="62" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
@@ -7577,10 +7579,10 @@
       </c>
       <c r="C35" s="89"/>
       <c r="D35" s="62" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
@@ -7591,13 +7593,13 @@
         <v>42701</v>
       </c>
       <c r="C36" s="78" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
@@ -7608,13 +7610,13 @@
         <v>42701</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -7626,10 +7628,10 @@
       </c>
       <c r="C38" s="88"/>
       <c r="D38" s="62" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
@@ -7641,10 +7643,10 @@
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="62" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -7655,13 +7657,13 @@
         <v>42701</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -7673,10 +7675,10 @@
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="62" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
@@ -7687,13 +7689,13 @@
         <v>42701</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E42" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
@@ -7705,10 +7707,10 @@
       </c>
       <c r="C43" s="89"/>
       <c r="D43" s="62" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
@@ -7719,16 +7721,16 @@
         <v>42701</v>
       </c>
       <c r="C44" s="82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>223</v>
@@ -7740,16 +7742,16 @@
         <v>42701</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E45" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G45" s="53" t="s">
         <v>223</v>
@@ -7762,13 +7764,13 @@
       </c>
       <c r="C46" s="89"/>
       <c r="D46" s="62" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G46" s="53" t="s">
         <v>223</v>
@@ -7780,22 +7782,22 @@
         <v>42701</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F47" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>223</v>
       </c>
       <c r="H47" s="53" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7804,13 +7806,13 @@
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="62" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>223</v>
@@ -7822,18 +7824,20 @@
         <v>42701</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G49" s="53"/>
+        <v>381</v>
+      </c>
+      <c r="G49" s="53" t="s">
+        <v>391</v>
+      </c>
       <c r="H49" s="53"/>
     </row>
     <row r="50" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7842,15 +7846,17 @@
       </c>
       <c r="C50" s="89"/>
       <c r="D50" s="62" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G50" s="53"/>
+        <v>381</v>
+      </c>
+      <c r="G50" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H50" s="53"/>
     </row>
     <row r="51" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7858,16 +7864,16 @@
         <v>42701</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>223</v>
@@ -7879,18 +7885,20 @@
         <v>42701</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G52" s="53"/>
+        <v>381</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H52" s="53"/>
     </row>
     <row r="53" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7898,16 +7906,16 @@
         <v>42701</v>
       </c>
       <c r="C53" s="78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D53" s="62" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G53" s="53" t="s">
         <v>223</v>
@@ -7919,18 +7927,20 @@
         <v>42701</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D54" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="E54" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="F54" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="F54" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G54" s="53"/>
+      <c r="G54" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H54" s="53"/>
     </row>
     <row r="55" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7939,15 +7949,17 @@
       </c>
       <c r="C55" s="89"/>
       <c r="D55" s="62" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G55" s="53"/>
+        <v>381</v>
+      </c>
+      <c r="G55" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H55" s="53"/>
     </row>
     <row r="56" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7955,16 +7967,16 @@
         <v>42701</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F56" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="53"/>
@@ -7975,13 +7987,13 @@
       </c>
       <c r="C57" s="88"/>
       <c r="D57" s="62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G57" s="53"/>
       <c r="H57" s="53"/>
@@ -7992,13 +8004,13 @@
       </c>
       <c r="C58" s="88"/>
       <c r="D58" s="62" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G58" s="53"/>
       <c r="H58" s="53"/>
@@ -8009,13 +8021,13 @@
       </c>
       <c r="C59" s="88"/>
       <c r="D59" s="62" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G59" s="53"/>
       <c r="H59" s="53"/>
@@ -8026,13 +8038,13 @@
       </c>
       <c r="C60" s="88"/>
       <c r="D60" s="62" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G60" s="53"/>
       <c r="H60" s="53"/>
@@ -8043,17 +8055,15 @@
       </c>
       <c r="C61" s="89"/>
       <c r="D61" s="62" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F61" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G61" s="53" t="s">
-        <v>223</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="G61" s="53"/>
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8061,16 +8071,16 @@
         <v>42701</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D62" s="62" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G62" s="53" t="s">
         <v>223</v>
@@ -8083,36 +8093,38 @@
       </c>
       <c r="C63" s="89"/>
       <c r="D63" s="62" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F63" s="53" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G63" s="53" t="s">
-        <v>392</v>
+        <v>223</v>
       </c>
       <c r="H63" s="53"/>
     </row>
-    <row r="64" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="70">
         <v>42701</v>
       </c>
       <c r="C64" s="78" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D64" s="62" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="G64" s="53"/>
+        <v>381</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="H64" s="53"/>
     </row>
     <row r="65" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8120,13 +8132,13 @@
         <v>42701</v>
       </c>
       <c r="C65" s="87" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F65" s="53"/>
       <c r="G65" s="53"/>
@@ -8138,10 +8150,10 @@
       </c>
       <c r="C66" s="88"/>
       <c r="D66" s="62" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E66" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
@@ -8153,10 +8165,10 @@
       </c>
       <c r="C67" s="88"/>
       <c r="D67" s="62" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
@@ -8168,10 +8180,10 @@
       </c>
       <c r="C68" s="88"/>
       <c r="D68" s="62" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
@@ -8183,10 +8195,10 @@
       </c>
       <c r="C69" s="88"/>
       <c r="D69" s="62" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
@@ -8198,10 +8210,10 @@
       </c>
       <c r="C70" s="88"/>
       <c r="D70" s="62" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
@@ -8213,10 +8225,10 @@
       </c>
       <c r="C71" s="89"/>
       <c r="D71" s="62" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
@@ -8227,13 +8239,13 @@
         <v>42701</v>
       </c>
       <c r="C72" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="D72" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="D72" s="62" t="s">
-        <v>377</v>
-      </c>
       <c r="E72" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F72" s="53"/>
       <c r="G72" s="53"/>
@@ -8244,13 +8256,13 @@
         <v>42701</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F73" s="53"/>
       <c r="G73" s="53"/>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -6948,8 +6948,8 @@
   </sheetPr>
   <dimension ref="B1:H117"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="D56:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bug列表!$B$1:$H$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bug列表!$B$1:$H$74</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="395">
   <si>
     <t>系统</t>
   </si>
@@ -1654,6 +1654,10 @@
   </si>
   <si>
     <t>购买商品-选择赠品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回购审批，单独的回购审批页面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6946,10 +6950,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:H117"/>
+  <dimension ref="B1:H118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G61" sqref="D56:G61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8053,7 +8057,7 @@
       <c r="B61" s="70">
         <v>42701</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="62" t="s">
         <v>357</v>
       </c>
@@ -8067,14 +8071,10 @@
       <c r="H61" s="53"/>
     </row>
     <row r="62" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="70">
-        <v>42701</v>
-      </c>
-      <c r="C62" s="87" t="s">
-        <v>358</v>
-      </c>
+      <c r="B62" s="70"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="62" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>320</v>
@@ -8082,21 +8082,21 @@
       <c r="F62" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G62" s="53" t="s">
-        <v>223</v>
-      </c>
+      <c r="G62" s="53"/>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="70">
         <v>42701</v>
       </c>
-      <c r="C63" s="89"/>
+      <c r="C63" s="87" t="s">
+        <v>358</v>
+      </c>
       <c r="D63" s="62" t="s">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F63" s="53" t="s">
         <v>381</v>
@@ -8106,51 +8106,55 @@
       </c>
       <c r="H63" s="53"/>
     </row>
-    <row r="64" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="70">
         <v>42701</v>
       </c>
-      <c r="C64" s="78" t="s">
-        <v>360</v>
-      </c>
+      <c r="C64" s="89"/>
       <c r="D64" s="62" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F64" s="53" t="s">
         <v>381</v>
       </c>
       <c r="G64" s="53" t="s">
-        <v>387</v>
+        <v>223</v>
       </c>
       <c r="H64" s="53"/>
     </row>
-    <row r="65" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="70">
         <v>42701</v>
       </c>
-      <c r="C65" s="87" t="s">
-        <v>361</v>
+      <c r="C65" s="78" t="s">
+        <v>360</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>322</v>
-      </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
+        <v>320</v>
+      </c>
+      <c r="F65" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G65" s="53" t="s">
+        <v>387</v>
+      </c>
       <c r="H65" s="53"/>
     </row>
-    <row r="66" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="70">
         <v>42701</v>
       </c>
-      <c r="C66" s="88"/>
+      <c r="C66" s="87" t="s">
+        <v>361</v>
+      </c>
       <c r="D66" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E66" s="53" t="s">
         <v>322</v>
@@ -8159,13 +8163,13 @@
       <c r="G66" s="53"/>
       <c r="H66" s="53"/>
     </row>
-    <row r="67" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="70">
         <v>42701</v>
       </c>
       <c r="C67" s="88"/>
       <c r="D67" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E67" s="53" t="s">
         <v>322</v>
@@ -8174,13 +8178,13 @@
       <c r="G67" s="53"/>
       <c r="H67" s="53"/>
     </row>
-    <row r="68" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="70">
         <v>42701</v>
       </c>
       <c r="C68" s="88"/>
       <c r="D68" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E68" s="53" t="s">
         <v>322</v>
@@ -8189,13 +8193,13 @@
       <c r="G68" s="53"/>
       <c r="H68" s="53"/>
     </row>
-    <row r="69" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="70">
         <v>42701</v>
       </c>
       <c r="C69" s="88"/>
       <c r="D69" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E69" s="53" t="s">
         <v>322</v>
@@ -8210,7 +8214,7 @@
       </c>
       <c r="C70" s="88"/>
       <c r="D70" s="62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>322</v>
@@ -8223,9 +8227,9 @@
       <c r="B71" s="70">
         <v>42701</v>
       </c>
-      <c r="C71" s="89"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E71" s="53" t="s">
         <v>322</v>
@@ -8234,15 +8238,13 @@
       <c r="G71" s="53"/>
       <c r="H71" s="53"/>
     </row>
-    <row r="72" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="70">
         <v>42701</v>
       </c>
-      <c r="C72" s="78" t="s">
-        <v>369</v>
-      </c>
+      <c r="C72" s="89"/>
       <c r="D72" s="62" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>322</v>
@@ -8251,15 +8253,15 @@
       <c r="G72" s="53"/>
       <c r="H72" s="53"/>
     </row>
-    <row r="73" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="70">
         <v>42701</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E73" s="53" t="s">
         <v>322</v>
@@ -8269,10 +8271,18 @@
       <c r="H73" s="53"/>
     </row>
     <row r="74" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="65"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="53"/>
+      <c r="B74" s="70">
+        <v>42701</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="D74" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>322</v>
+      </c>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
       <c r="H74" s="53"/>
@@ -8295,7 +8305,7 @@
       <c r="G76" s="53"/>
       <c r="H76" s="53"/>
     </row>
-    <row r="77" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="65"/>
       <c r="C77" s="78"/>
       <c r="D77" s="62"/>
@@ -8664,9 +8674,18 @@
       <c r="G117" s="53"/>
       <c r="H117" s="53"/>
     </row>
+    <row r="118" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="65"/>
+      <c r="C118" s="78"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="53"/>
+      <c r="G118" s="53"/>
+      <c r="H118" s="53"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C65:C71"/>
+    <mergeCell ref="C66:C72"/>
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="C40:C41"/>
@@ -8675,18 +8694,18 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C56:C62"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H74:H117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H75:H118">
       <formula1>"未完成,进行中,已完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E73 F2:F43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E74 F2:F43">
       <formula1>"易用性,新功能"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G74">
       <formula1>"已完成,未完成"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="397">
   <si>
     <t>系统</t>
   </si>
@@ -1611,10 +1611,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>菜单名称需要修改（待确定）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>定单管理改为退换货管理</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1658,6 +1654,18 @@
   </si>
   <si>
     <t>回购审批，单独的回购审批页面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>此处先省略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单名称需要修改（待确定）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6952,8 +6960,8 @@
   </sheetPr>
   <dimension ref="B1:H118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7036,7 +7044,7 @@
         <v>281</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>320</v>
@@ -7055,7 +7063,7 @@
         <v>282</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>322</v>
@@ -7074,7 +7082,7 @@
         <v>283</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>322</v>
@@ -7688,7 +7696,7 @@
       <c r="G41" s="53"/>
       <c r="H41" s="53"/>
     </row>
-    <row r="42" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="70">
         <v>42701</v>
       </c>
@@ -7840,7 +7848,7 @@
         <v>381</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H49" s="53"/>
     </row>
@@ -7889,7 +7897,7 @@
         <v>42701</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D52" s="62" t="s">
         <v>346</v>
@@ -7974,7 +7982,7 @@
         <v>353</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E56" s="53" t="s">
         <v>320</v>
@@ -7983,7 +7991,9 @@
         <v>381</v>
       </c>
       <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
+      <c r="H56" s="53" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="57" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="70">
@@ -7999,7 +8009,9 @@
       <c r="F57" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G57" s="53"/>
+      <c r="G57" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8016,7 +8028,9 @@
       <c r="F58" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G58" s="53"/>
+      <c r="G58" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H58" s="53"/>
     </row>
     <row r="59" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8033,7 +8047,9 @@
       <c r="F59" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G59" s="53"/>
+      <c r="G59" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H59" s="53"/>
     </row>
     <row r="60" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8050,7 +8066,9 @@
       <c r="F60" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G60" s="53"/>
+      <c r="G60" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H60" s="53"/>
     </row>
     <row r="61" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8068,13 +8086,15 @@
         <v>381</v>
       </c>
       <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
+      <c r="H61" s="53" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="62" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="70"/>
       <c r="C62" s="89"/>
       <c r="D62" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E62" s="53" t="s">
         <v>320</v>
@@ -8082,7 +8102,9 @@
       <c r="F62" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G62" s="53"/>
+      <c r="G62" s="53" t="s">
+        <v>223</v>
+      </c>
       <c r="H62" s="53"/>
     </row>
     <row r="63" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8093,7 +8115,7 @@
         <v>358</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E63" s="53" t="s">
         <v>320</v>
@@ -8133,7 +8155,7 @@
         <v>360</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>320</v>
@@ -8142,7 +8164,7 @@
         <v>381</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H65" s="53"/>
     </row>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -6960,8 +6960,8 @@
   </sheetPr>
   <dimension ref="B1:H118"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/doc/meeting/1127软件修改.xlsx
+++ b/src/test/doc/meeting/1127软件修改.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="397">
   <si>
     <t>系统</t>
   </si>
@@ -1176,17 +1176,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1：用户详细信息应该加关联亲友字段、备用电话
-2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
-  3：购买记录中加接待人
-  4：业务员统一改为接待
-  5：撤单表格中加撤单时间（未加-待定）
-  6：来访记录中加赠品（每次登门都会领取赠品）
-  7：顺序调整（页面显示）：购买、来访、回购、撤单
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>修改客户信息页面</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1666,6 +1655,16 @@
   </si>
   <si>
     <t>？？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：用户详细信息应该加关联亲友字段、备用电话
+2：电话号码名称统一（查询的电话为主，可以增加备用电话，但不做查询使用）
+  3：购买记录中加接待人
+  4：业务员统一改为接待
+  5：撤单表格中加撤单时间（未加-待定）
+  6：来访记录中加赠品（每次登门都会领取赠品）
+  7：顺序调整（页面显示）：购买、来访、回购、撤单</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6961,7 +6960,7 @@
   <dimension ref="B1:H118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.59765625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6977,7 +6976,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C1" s="79" t="s">
         <v>276</v>
@@ -6986,16 +6985,16 @@
         <v>275</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F1" s="69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G1" s="69" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7009,7 +7008,7 @@
         <v>278</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" s="53"/>
       <c r="G2" s="53" t="s">
@@ -7025,10 +7024,10 @@
         <v>279</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>280</v>
+        <v>396</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F3" s="53"/>
       <c r="G3" s="53" t="s">
@@ -7041,13 +7040,13 @@
         <v>42687</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F4" s="53"/>
       <c r="G4" s="53" t="s">
@@ -7060,13 +7059,13 @@
         <v>42687</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F5" s="53"/>
       <c r="G5" s="53" t="s">
@@ -7079,13 +7078,13 @@
         <v>42687</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F6" s="53"/>
       <c r="G6" s="53" t="s">
@@ -7098,13 +7097,13 @@
         <v>42687</v>
       </c>
       <c r="C7" s="78" t="s">
+        <v>283</v>
+      </c>
+      <c r="D7" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>285</v>
-      </c>
       <c r="E7" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F7" s="53"/>
       <c r="G7" s="53" t="s">
@@ -7117,13 +7116,13 @@
         <v>42687</v>
       </c>
       <c r="C8" s="78" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="D8" s="62" t="s">
-        <v>287</v>
-      </c>
       <c r="E8" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F8" s="53"/>
       <c r="G8" s="53" t="s">
@@ -7136,18 +7135,16 @@
         <v>42687</v>
       </c>
       <c r="C9" s="78" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>289</v>
-      </c>
       <c r="E9" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
-        <v>223</v>
-      </c>
+      <c r="G9" s="53"/>
       <c r="H9" s="53"/>
     </row>
     <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7155,13 +7152,13 @@
         <v>42687</v>
       </c>
       <c r="C10" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="67" t="s">
-        <v>291</v>
-      </c>
       <c r="E10" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53" t="s">
@@ -7175,10 +7172,10 @@
       </c>
       <c r="C11" s="72"/>
       <c r="D11" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53" t="s">
@@ -7192,10 +7189,10 @@
       </c>
       <c r="C12" s="72"/>
       <c r="D12" s="67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53" t="s">
@@ -7209,10 +7206,10 @@
       </c>
       <c r="C13" s="72"/>
       <c r="D13" s="67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53" t="s">
@@ -7226,10 +7223,10 @@
       </c>
       <c r="C14" s="72"/>
       <c r="D14" s="67" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F14" s="53"/>
       <c r="G14" s="53" t="s">
@@ -7243,10 +7240,10 @@
       </c>
       <c r="C15" s="73"/>
       <c r="D15" s="68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F15" s="53"/>
       <c r="G15" s="53" t="s">
@@ -7259,13 +7256,13 @@
         <v>42687</v>
       </c>
       <c r="C16" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>298</v>
-      </c>
       <c r="E16" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F16" s="53"/>
       <c r="G16" s="53" t="s">
@@ -7279,10 +7276,10 @@
       </c>
       <c r="C17" s="72"/>
       <c r="D17" s="67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F17" s="53"/>
       <c r="G17" s="53" t="s">
@@ -7296,10 +7293,10 @@
       </c>
       <c r="C18" s="72"/>
       <c r="D18" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F18" s="53"/>
       <c r="G18" s="53" t="s">
@@ -7313,10 +7310,10 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="67" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E19" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="53" t="s">
@@ -7329,13 +7326,13 @@
         <v>42687</v>
       </c>
       <c r="C20" s="71" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" s="67" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="67" t="s">
-        <v>302</v>
-      </c>
       <c r="E20" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F20" s="53"/>
       <c r="G20" s="53" t="s">
@@ -7349,10 +7346,10 @@
       </c>
       <c r="C21" s="72"/>
       <c r="D21" s="67" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F21" s="53"/>
       <c r="G21" s="53" t="s">
@@ -7365,13 +7362,13 @@
         <v>42687</v>
       </c>
       <c r="C22" s="74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="67" t="s">
-        <v>305</v>
-      </c>
       <c r="E22" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="53" t="s">
@@ -7385,10 +7382,10 @@
       </c>
       <c r="C23" s="72"/>
       <c r="D23" s="67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E23" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F23" s="53"/>
       <c r="G23" s="53" t="s">
@@ -7402,10 +7399,10 @@
       </c>
       <c r="C24" s="72"/>
       <c r="D24" s="67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" s="53"/>
       <c r="G24" s="53" t="s">
@@ -7419,10 +7416,10 @@
       </c>
       <c r="C25" s="72"/>
       <c r="D25" s="67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F25" s="53"/>
       <c r="G25" s="53" t="s">
@@ -7436,10 +7433,10 @@
       </c>
       <c r="C26" s="80"/>
       <c r="D26" s="67" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E26" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F26" s="53"/>
       <c r="G26" s="53" t="s">
@@ -7453,10 +7450,10 @@
       </c>
       <c r="C27" s="80"/>
       <c r="D27" s="67" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E27" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F27" s="53"/>
       <c r="G27" s="53" t="s">
@@ -7469,13 +7466,13 @@
         <v>42687</v>
       </c>
       <c r="C28" s="74" t="s">
+        <v>309</v>
+      </c>
+      <c r="D28" s="67" t="s">
         <v>310</v>
       </c>
-      <c r="D28" s="67" t="s">
-        <v>311</v>
-      </c>
       <c r="E28" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F28" s="53"/>
       <c r="G28" s="53" t="s">
@@ -7489,10 +7486,10 @@
       </c>
       <c r="C29" s="75"/>
       <c r="D29" s="67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E29" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F29" s="53"/>
       <c r="G29" s="53" t="s">
@@ -7506,10 +7503,10 @@
       </c>
       <c r="C30" s="76"/>
       <c r="D30" s="67" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E30" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F30" s="53"/>
       <c r="G30" s="53" t="s">
@@ -7522,13 +7519,13 @@
         <v>42687</v>
       </c>
       <c r="C31" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="D31" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="67" t="s">
-        <v>315</v>
-      </c>
       <c r="E31" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F31" s="53"/>
       <c r="G31" s="53" t="s">
@@ -7541,13 +7538,13 @@
         <v>42701</v>
       </c>
       <c r="C32" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" s="62" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>325</v>
-      </c>
       <c r="E32" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F32" s="53"/>
       <c r="G32" s="53"/>
@@ -7558,13 +7555,13 @@
         <v>42701</v>
       </c>
       <c r="C33" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="D33" s="62" t="s">
         <v>349</v>
       </c>
-      <c r="D33" s="62" t="s">
-        <v>350</v>
-      </c>
       <c r="E33" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F33" s="53"/>
       <c r="G33" s="53"/>
@@ -7576,10 +7573,10 @@
       </c>
       <c r="C34" s="88"/>
       <c r="D34" s="62" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E34" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
@@ -7591,10 +7588,10 @@
       </c>
       <c r="C35" s="89"/>
       <c r="D35" s="62" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
@@ -7605,13 +7602,13 @@
         <v>42701</v>
       </c>
       <c r="C36" s="78" t="s">
+        <v>325</v>
+      </c>
+      <c r="D36" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="D36" s="62" t="s">
-        <v>327</v>
-      </c>
       <c r="E36" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
@@ -7622,13 +7619,13 @@
         <v>42701</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -7640,10 +7637,10 @@
       </c>
       <c r="C38" s="88"/>
       <c r="D38" s="62" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
@@ -7655,10 +7652,10 @@
       </c>
       <c r="C39" s="89"/>
       <c r="D39" s="62" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -7669,13 +7666,13 @@
         <v>42701</v>
       </c>
       <c r="C40" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="D40" s="62" t="s">
         <v>332</v>
       </c>
-      <c r="D40" s="62" t="s">
-        <v>333</v>
-      </c>
       <c r="E40" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -7687,10 +7684,10 @@
       </c>
       <c r="C41" s="88"/>
       <c r="D41" s="62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E41" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
@@ -7701,13 +7698,13 @@
         <v>42701</v>
       </c>
       <c r="C42" s="87" t="s">
+        <v>334</v>
+      </c>
+      <c r="D42" s="62" t="s">
         <v>335</v>
       </c>
-      <c r="D42" s="62" t="s">
-        <v>336</v>
-      </c>
       <c r="E42" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
@@ -7719,10 +7716,10 @@
       </c>
       <c r="C43" s="89"/>
       <c r="D43" s="62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
@@ -7733,16 +7730,16 @@
         <v>42701</v>
       </c>
       <c r="C44" s="82" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="62" t="s">
         <v>338</v>
       </c>
-      <c r="D44" s="62" t="s">
-        <v>339</v>
-      </c>
       <c r="E44" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>223</v>
@@ -7754,16 +7751,16 @@
         <v>42701</v>
       </c>
       <c r="C45" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="D45" s="62" t="s">
         <v>340</v>
       </c>
-      <c r="D45" s="62" t="s">
-        <v>341</v>
-      </c>
       <c r="E45" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G45" s="53" t="s">
         <v>223</v>
@@ -7776,13 +7773,13 @@
       </c>
       <c r="C46" s="89"/>
       <c r="D46" s="62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F46" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G46" s="53" t="s">
         <v>223</v>
@@ -7794,22 +7791,22 @@
         <v>42701</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D47" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="H47" s="53" t="s">
         <v>382</v>
-      </c>
-      <c r="E47" s="53" t="s">
-        <v>320</v>
-      </c>
-      <c r="F47" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="H47" s="53" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7818,13 +7815,13 @@
       </c>
       <c r="C48" s="89"/>
       <c r="D48" s="62" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F48" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>223</v>
@@ -7836,19 +7833,19 @@
         <v>42701</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D49" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E49" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F49" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G49" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H49" s="53"/>
     </row>
@@ -7858,13 +7855,13 @@
       </c>
       <c r="C50" s="89"/>
       <c r="D50" s="62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F50" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G50" s="53" t="s">
         <v>223</v>
@@ -7876,16 +7873,16 @@
         <v>42701</v>
       </c>
       <c r="C51" s="78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D51" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F51" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G51" s="53" t="s">
         <v>223</v>
@@ -7897,16 +7894,16 @@
         <v>42701</v>
       </c>
       <c r="C52" s="78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D52" s="62" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E52" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G52" s="53" t="s">
         <v>223</v>
@@ -7918,16 +7915,16 @@
         <v>42701</v>
       </c>
       <c r="C53" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="D53" s="62" t="s">
         <v>347</v>
       </c>
-      <c r="D53" s="62" t="s">
-        <v>348</v>
-      </c>
       <c r="E53" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G53" s="53" t="s">
         <v>223</v>
@@ -7939,16 +7936,16 @@
         <v>42701</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D54" s="62" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F54" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G54" s="53" t="s">
         <v>223</v>
@@ -7961,13 +7958,13 @@
       </c>
       <c r="C55" s="89"/>
       <c r="D55" s="62" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E55" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G55" s="53" t="s">
         <v>223</v>
@@ -7979,20 +7976,20 @@
         <v>42701</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D56" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E56" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F56" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G56" s="53"/>
       <c r="H56" s="53" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8001,13 +7998,13 @@
       </c>
       <c r="C57" s="88"/>
       <c r="D57" s="62" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E57" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G57" s="53" t="s">
         <v>223</v>
@@ -8020,13 +8017,13 @@
       </c>
       <c r="C58" s="88"/>
       <c r="D58" s="62" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E58" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F58" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G58" s="53" t="s">
         <v>223</v>
@@ -8039,13 +8036,13 @@
       </c>
       <c r="C59" s="88"/>
       <c r="D59" s="62" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E59" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F59" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G59" s="53" t="s">
         <v>223</v>
@@ -8058,13 +8055,13 @@
       </c>
       <c r="C60" s="88"/>
       <c r="D60" s="62" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F60" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G60" s="53" t="s">
         <v>223</v>
@@ -8077,30 +8074,30 @@
       </c>
       <c r="C61" s="88"/>
       <c r="D61" s="62" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E61" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F61" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G61" s="53"/>
       <c r="H61" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="70"/>
       <c r="C62" s="89"/>
       <c r="D62" s="62" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E62" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F62" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G62" s="53" t="s">
         <v>223</v>
@@ -8112,16 +8109,16 @@
         <v>42701</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D63" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E63" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F63" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G63" s="53" t="s">
         <v>223</v>
@@ -8134,13 +8131,13 @@
       </c>
       <c r="C64" s="89"/>
       <c r="D64" s="62" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E64" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F64" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G64" s="53" t="s">
         <v>223</v>
@@ -8152,19 +8149,19 @@
         <v>42701</v>
       </c>
       <c r="C65" s="78" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D65" s="62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F65" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G65" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H65" s="53"/>
     </row>
@@ -8173,13 +8170,13 @@
         <v>42701</v>
       </c>
       <c r="C66" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D66" s="62" t="s">
         <v>361</v>
       </c>
-      <c r="D66" s="62" t="s">
-        <v>362</v>
-      </c>
       <c r="E66" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
@@ -8191,10 +8188,10 @@
       </c>
       <c r="C67" s="88"/>
       <c r="D67" s="62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E67" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
@@ -8206,10 +8203,10 @@
       </c>
       <c r="C68" s="88"/>
       <c r="D68" s="62" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
@@ -8221,10 +8218,10 @@
       </c>
       <c r="C69" s="88"/>
       <c r="D69" s="62" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
@@ -8236,10 +8233,10 @@
       </c>
       <c r="C70" s="88"/>
       <c r="D70" s="62" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E70" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F70" s="53"/>
       <c r="G70" s="53"/>
@@ -8251,10 +8248,10 @@
       </c>
       <c r="C71" s="88"/>
       <c r="D71" s="62" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="53"/>
       <c r="G71" s="53"/>
@@ -8266,10 +8263,10 @@
       </c>
       <c r="C72" s="89"/>
       <c r="D72" s="62" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E72" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F72" s="53"/>
       <c r="G72" s="53"/>
@@ -8280,13 +8277,13 @@
         <v>42701</v>
       </c>
       <c r="C73" s="78" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D73" s="62" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F73" s="53"/>
       <c r="G73" s="53"/>
@@ -8297,13 +8294,13 @@
         <v>42701</v>
       </c>
       <c r="C74" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="D74" s="62" t="s">
         <v>370</v>
       </c>
-      <c r="D74" s="62" t="s">
-        <v>371</v>
-      </c>
       <c r="E74" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F74" s="53"/>
       <c r="G74" s="53"/>
